--- a/sriramModel-nelson-atypical-patientID_7-sims-gr-5-iterations.xlsx
+++ b/sriramModel-nelson-atypical-patientID_7-sims-gr-5-iterations.xlsx
@@ -394,19 +394,19 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>2.817585169988904</v>
+        <v>2.008646904379912</v>
       </c>
       <c r="C2">
-        <v>2.269012241658619</v>
+        <v>2.009959389375145</v>
       </c>
       <c r="D2">
-        <v>2.084721987441227</v>
+        <v>2.006682063199004</v>
       </c>
       <c r="E2">
-        <v>2.240041874617249</v>
+        <v>2.023059508331779</v>
       </c>
       <c r="F2">
-        <v>2.191577664775412</v>
+        <v>2.036455062391599</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -414,19 +414,19 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>3.652180112306627</v>
+        <v>2.01731867525822</v>
       </c>
       <c r="C3">
-        <v>2.534203044234459</v>
+        <v>2.01993911908289</v>
       </c>
       <c r="D3">
-        <v>2.169267291433847</v>
+        <v>2.013379929518713</v>
       </c>
       <c r="E3">
-        <v>2.478090015254657</v>
+        <v>2.046076075880124</v>
       </c>
       <c r="F3">
-        <v>2.380999075422989</v>
+        <v>2.072640799795015</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -434,19 +434,19 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>4.476518098724152</v>
+        <v>2.026015391839614</v>
       </c>
       <c r="C4">
-        <v>2.795616510363689</v>
+        <v>2.029939168490378</v>
       </c>
       <c r="D4">
-        <v>2.253827215399001</v>
+        <v>2.020091523115765</v>
       </c>
       <c r="E4">
-        <v>2.71455247619638</v>
+        <v>2.069049966583409</v>
       </c>
       <c r="F4">
-        <v>2.568294215907932</v>
+        <v>2.108560862573138</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -454,19 +454,19 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>5.285436523858119</v>
+        <v>2.034737137953545</v>
       </c>
       <c r="C5">
-        <v>3.053304928532114</v>
+        <v>2.039959520969674</v>
       </c>
       <c r="D5">
-        <v>2.338605763914619</v>
+        <v>2.026814824207989</v>
       </c>
       <c r="E5">
-        <v>2.949021932453605</v>
+        <v>2.091981474602127</v>
       </c>
       <c r="F5">
-        <v>2.753499410566512</v>
+        <v>2.144218906834317</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -474,19 +474,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>6.078665098361475</v>
+        <v>2.043484003111618</v>
       </c>
       <c r="C6">
-        <v>3.30732210737832</v>
+        <v>2.050000164208347</v>
       </c>
       <c r="D6">
-        <v>2.423810192834907</v>
+        <v>2.033547868978682</v>
       </c>
       <c r="E6">
-        <v>3.180842810544275</v>
+        <v>2.114870920521569</v>
       </c>
       <c r="F6">
-        <v>2.936665401206205</v>
+        <v>2.179618580619153</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -494,19 +494,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>6.856388999031813</v>
+        <v>2.052256082161166</v>
       </c>
       <c r="C7">
-        <v>3.557721938405062</v>
+        <v>2.060061089931533</v>
       </c>
       <c r="D7">
-        <v>2.509638371638833</v>
+        <v>2.040288750711476</v>
       </c>
       <c r="E7">
-        <v>3.409581245809912</v>
+        <v>2.137718648926306</v>
       </c>
       <c r="F7">
-        <v>3.117873670184925</v>
+        <v>2.214763526252068</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -514,19 +514,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>7.618847496762743</v>
+        <v>2.061053474552249</v>
       </c>
       <c r="C8">
-        <v>3.804557908591931</v>
+        <v>2.07014229352758</v>
       </c>
       <c r="D8">
-        <v>2.596263402485447</v>
+        <v>2.047035620775435</v>
       </c>
       <c r="E8">
-        <v>3.635037645983248</v>
+        <v>2.160525025612064</v>
       </c>
       <c r="F8">
-        <v>3.297264676431354</v>
+        <v>2.2496573797087</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -534,19 +534,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>8.366287056157777</v>
+        <v>2.069876284019145</v>
       </c>
       <c r="C9">
-        <v>4.047882839877039</v>
+        <v>2.080243773654758</v>
       </c>
       <c r="D9">
-        <v>2.683817935161215</v>
+        <v>2.053786689180146</v>
       </c>
       <c r="E9">
-        <v>3.857145046445985</v>
+        <v>2.183290434974202</v>
       </c>
       <c r="F9">
-        <v>3.475077250726221</v>
+        <v>2.28430376761121</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -554,19 +554,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>9.098953761210586</v>
+        <v>2.078724618314727</v>
       </c>
       <c r="C10">
-        <v>4.287748715404966</v>
+        <v>2.090365531916424</v>
       </c>
       <c r="D10">
-        <v>2.772380139935194</v>
+        <v>2.060540224980558</v>
       </c>
       <c r="E10">
-        <v>4.075899356164569</v>
+        <v>2.206015278504722</v>
       </c>
       <c r="F10">
-        <v>3.65167849259998</v>
+        <v>2.318706304745341</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -574,19 +574,19 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>9.817091469652656</v>
+        <v>2.087598588848245</v>
       </c>
       <c r="C11">
-        <v>4.524206556321928</v>
+        <v>2.100507572556543</v>
       </c>
       <c r="D11">
-        <v>2.861964657776928</v>
+        <v>2.067294556439562</v>
       </c>
       <c r="E11">
-        <v>4.291324883115247</v>
+        <v>2.228699972833492</v>
       </c>
       <c r="F11">
-        <v>3.827527871371917</v>
+        <v>2.352868592343066</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -594,19 +594,19 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>10.52094132594421</v>
+        <v>2.096498310319722</v>
       </c>
       <c r="C12">
-        <v>4.757306342889565</v>
+        <v>2.110669902162187</v>
       </c>
       <c r="D12">
-        <v>2.95252067563898</v>
+        <v>2.074048070926499</v>
       </c>
       <c r="E12">
-        <v>4.503458687491261</v>
+        <v>2.251344947113709</v>
       </c>
       <c r="F12">
-        <v>4.003017941673775</v>
+        <v>2.386794216438811</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -614,19 +614,19 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>11.21074176434337</v>
+        <v>2.105423900433949</v>
       </c>
       <c r="C13">
-        <v>4.98709697239042</v>
+        <v>2.12085252936476</v>
       </c>
       <c r="D13">
-        <v>3.043937855838386</v>
+        <v>2.080799214633164</v>
       </c>
       <c r="E13">
-        <v>4.712342991855698</v>
+        <v>2.273950641478006</v>
       </c>
       <c r="F13">
-        <v>4.178265423396939</v>
+        <v>2.420486746261477</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -634,19 +634,19 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>11.88672844606964</v>
+        <v>2.114375479603211</v>
       </c>
       <c r="C14">
-        <v>5.213626247621966</v>
+        <v>2.131055464548178</v>
       </c>
       <c r="D14">
-        <v>3.136058860856215</v>
+        <v>2.087546492170073</v>
       </c>
       <c r="E14">
-        <v>4.918021649924241</v>
+        <v>2.29651750513922</v>
       </c>
       <c r="F14">
-        <v>4.353056239761004</v>
+        <v>2.45394973245571</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -654,19 +654,19 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>12.5491342341288</v>
+        <v>2.123353170679234</v>
       </c>
       <c r="C15">
-        <v>5.436940889569239</v>
+        <v>2.141278719572404</v>
       </c>
       <c r="D15">
-        <v>3.228695657208268</v>
+        <v>2.094288466121901</v>
       </c>
       <c r="E15">
-        <v>5.120538389129782</v>
+        <v>2.319045994801162</v>
       </c>
       <c r="F15">
-        <v>4.527002726082016</v>
+        <v>2.487186706142146</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -674,19 +674,19 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>13.19818920209492</v>
+        <v>2.132357098692476</v>
       </c>
       <c r="C16">
-        <v>5.657086566971673</v>
+        <v>2.151522307510581</v>
       </c>
       <c r="D16">
-        <v>3.321646327228373</v>
+        <v>2.101023756106182</v>
       </c>
       <c r="E16">
-        <v>5.319936032578879</v>
+        <v>2.341536573790289</v>
       </c>
       <c r="F16">
-        <v>4.699732746234448</v>
+        <v>2.520201177646218</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -694,19 +694,19 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>13.83412064030649</v>
+        <v>2.1413873905798</v>
       </c>
       <c r="C17">
-        <v>5.874107937354743</v>
+        <v>2.161786242395401</v>
       </c>
       <c r="D17">
-        <v>3.41470967653349</v>
+        <v>2.107751037904764</v>
       </c>
       <c r="E17">
-        <v>5.516256276100905</v>
+        <v>2.363989710613305</v>
       </c>
       <c r="F17">
-        <v>4.870975856186836</v>
+        <v>2.552996634706134</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -714,19 +714,19 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>14.45715306162909</v>
+        <v>2.150444175130282</v>
       </c>
       <c r="C18">
-        <v>6.088048695026938</v>
+        <v>2.172070538981182</v>
       </c>
       <c r="D18">
-        <v>3.507696117183077</v>
+        <v>2.114469042561228</v>
       </c>
       <c r="E18">
-        <v>5.709539745845469</v>
+        <v>2.38640587786122</v>
       </c>
       <c r="F18">
-        <v>5.040563854908354</v>
+        <v>2.585576540719412</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -734,19 +734,19 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>15.06750820841317</v>
+        <v>2.159527582659761</v>
       </c>
       <c r="C19">
-        <v>6.298951621871294</v>
+        <v>2.182375212515844</v>
       </c>
       <c r="D19">
-        <v>3.600434500168323</v>
+        <v>2.121176555357841</v>
       </c>
       <c r="E19">
-        <v>5.899826158746897</v>
+        <v>2.408785551144363</v>
       </c>
       <c r="F19">
-        <v>5.208402731920257</v>
+        <v>2.617944333968333</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -754,19 +754,19 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>15.66540506037286</v>
+        <v>2.168637744790366</v>
       </c>
       <c r="C20">
-        <v>6.506858638463573</v>
+        <v>2.192700278527022</v>
       </c>
       <c r="D20">
-        <v>3.692775405492344</v>
+        <v>2.127872414646022</v>
       </c>
       <c r="E20">
-        <v>6.087154491283084</v>
+        <v>2.431129208161777</v>
       </c>
       <c r="F20">
-        <v>5.374444747847226</v>
+        <v>2.650103426969156</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -774,19 +774,19 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>16.25105984317942</v>
+        <v>2.177774794490435</v>
       </c>
       <c r="C21">
-        <v>6.711810853909649</v>
+        <v>2.203045752607342</v>
       </c>
       <c r="D21">
-        <v>3.784591771812934</v>
+        <v>2.134555510595862</v>
       </c>
       <c r="E21">
-        <v>6.271563118436945</v>
+        <v>2.453437328040096</v>
       </c>
       <c r="F21">
-        <v>5.538670027499283</v>
+        <v>2.682057205123087</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -794,19 +794,19 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>16.82468603746029</v>
+        <v>2.186938865583216</v>
       </c>
       <c r="C22">
-        <v>6.913848613030959</v>
+        <v>2.21341165020555</v>
       </c>
       <c r="D22">
-        <v>3.875777798327964</v>
+        <v>2.141224783915666</v>
       </c>
       <c r="E22">
-        <v>6.453089916785164</v>
+        <v>2.475710390639936</v>
       </c>
       <c r="F22">
-        <v>5.7010747471212</v>
+        <v>2.713809025442056</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -814,19 +814,19 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>17.38649438847657</v>
+        <v>2.196130092854179</v>
       </c>
       <c r="C23">
-        <v>7.113011540404303</v>
+        <v>2.223797986498933</v>
       </c>
       <c r="D23">
-        <v>3.966246888063194</v>
+        <v>2.147879224517559</v>
       </c>
       <c r="E23">
-        <v>6.631772336534394</v>
+        <v>2.497948876213453</v>
       </c>
       <c r="F23">
-        <v>5.861664323075414</v>
+        <v>2.745362215301528</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -834,19 +834,19 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>17.93669291633</v>
+        <v>2.205348611844956</v>
       </c>
       <c r="C24">
-        <v>7.309338580805672</v>
+        <v>2.234204776254558</v>
       </c>
       <c r="D24">
-        <v>4.055929191195582</v>
+        <v>2.154517870223196</v>
       </c>
       <c r="E24">
-        <v>6.807647447727875</v>
+        <v>2.52015326500516</v>
       </c>
       <c r="F24">
-        <v>6.020449476925072</v>
+        <v>2.77672007140167</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -854,19 +854,19 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>18.47548692711013</v>
+        <v>2.214594558853151</v>
       </c>
       <c r="C25">
-        <v>7.502868036089152</v>
+        <v>2.24463203353916</v>
       </c>
       <c r="D25">
-        <v>4.144769110931479</v>
+        <v>2.161139805247303</v>
       </c>
       <c r="E25">
-        <v>6.980751974088603</v>
+        <v>2.542324036934374</v>
       </c>
       <c r="F25">
-        <v>6.177443973193777</v>
+        <v>2.807885858771329</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -874,19 +874,19 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>19.00307902284227</v>
+        <v>2.223868070733967</v>
       </c>
       <c r="C26">
-        <v>7.693637598821322</v>
+        <v>2.255079771692323</v>
       </c>
       <c r="D26">
-        <v>4.232722975753547</v>
+        <v>2.167744159097051</v>
       </c>
       <c r="E26">
-        <v>7.151122313050544</v>
+        <v>2.564461671407264</v>
       </c>
       <c r="F26">
-        <v>6.332663318466908</v>
+        <v>2.838862809708367</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -894,19 +894,19 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>19.51966911548188</v>
+        <v>2.233169284939471</v>
       </c>
       <c r="C27">
-        <v>7.881684382412001</v>
+        <v>2.26554800312899</v>
       </c>
       <c r="D27">
-        <v>4.319756976179393</v>
+        <v>2.174330104839921</v>
       </c>
       <c r="E27">
-        <v>7.318794548920171</v>
+        <v>2.586566647270029</v>
       </c>
       <c r="F27">
-        <v>6.486123970054787</v>
+        <v>2.869654122614956</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -914,19 +914,19 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>20.02545443814941</v>
+        <v>2.242498339386268</v>
       </c>
       <c r="C28">
-        <v>8.067044947982726</v>
+        <v>2.276036739231169</v>
       </c>
       <c r="D28">
-        <v>4.405845395600084</v>
+        <v>2.18089685778639</v>
       </c>
       <c r="E28">
-        <v>7.483804461438097</v>
+        <v>2.608639442858624</v>
       </c>
       <c r="F28">
-        <v>6.637842924875452</v>
+        <v>2.900262961009942</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -934,19 +934,19 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>20.52062955849059</v>
+        <v>2.251855372431065</v>
       </c>
       <c r="C29">
-        <v>8.24975532871885</v>
+        <v>2.286545990262481</v>
       </c>
       <c r="D29">
-        <v>4.490969126736911</v>
+        <v>2.187443673979197</v>
       </c>
       <c r="E29">
-        <v>7.646187530565249</v>
+        <v>2.630680536092152</v>
       </c>
       <c r="F29">
-        <v>6.787837445403587</v>
+        <v>2.930692452242603</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -954,19 +954,19 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>21.0053863933515</v>
+        <v>2.261240522842636</v>
       </c>
       <c r="C30">
-        <v>8.429851051797908</v>
+        <v>2.297075765266867</v>
       </c>
       <c r="D30">
-        <v>4.575114445801126</v>
+        <v>2.19396984891319</v>
       </c>
       <c r="E30">
-        <v>7.805978939395056</v>
+        <v>2.652690404634535</v>
       </c>
       <c r="F30">
-        <v>6.936124889015144</v>
+        <v>2.96094568670581</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -974,19 +974,19 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>21.47991422179496</v>
+        <v>2.270653929731351</v>
       </c>
       <c r="C31">
-        <v>8.607367157977228</v>
+        <v>2.30762607198393</v>
       </c>
       <c r="D31">
-        <v>4.658272008659016</v>
+        <v>2.200474716113023</v>
       </c>
       <c r="E31">
-        <v>7.96321357544692</v>
+        <v>2.6746695261994</v>
       </c>
       <c r="F31">
-        <v>7.08272261496365</v>
+        <v>2.991025716365218</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -994,19 +994,19 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>21.9443997000863</v>
+        <v>2.280095732600364</v>
       </c>
       <c r="C32">
-        <v>8.78233821900907</v>
+        <v>2.318196916781493</v>
       </c>
       <c r="D32">
-        <v>4.740436033750026</v>
+        <v>2.206957645765935</v>
       </c>
       <c r="E32">
-        <v>8.117926031045403</v>
+        <v>2.69661837887745</v>
       </c>
       <c r="F32">
-        <v>7.227647931466517</v>
+        <v>3.020935554010748</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -1014,19 +1014,19 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>22.39902687723897</v>
+        <v>2.289566071297056</v>
       </c>
       <c r="C33">
-        <v>8.954798353464128</v>
+        <v>2.328788304581475</v>
       </c>
       <c r="D33">
-        <v>4.821603639172722</v>
+        <v>2.213418043341033</v>
       </c>
       <c r="E33">
-        <v>8.270150603112894</v>
+        <v>2.71853744153398</v>
       </c>
       <c r="F33">
-        <v>7.370918057484165</v>
+        <v>3.050678171828411</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -1034,19 +1034,19 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>22.84397721006675</v>
+        <v>2.299065086051424</v>
       </c>
       <c r="C34">
-        <v>9.124781240832867</v>
+        <v>2.339400238803344</v>
       </c>
       <c r="D34">
-        <v>4.901774305327053</v>
+        <v>2.219855348235861</v>
       </c>
       <c r="E34">
-        <v>8.419921292518563</v>
+        <v>2.740427194244335</v>
       </c>
       <c r="F34">
-        <v>7.512550102756577</v>
+        <v>3.080256500515453</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -1054,19 +1054,19 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>23.27942957967097</v>
+        <v>2.308592917513427</v>
       </c>
       <c r="C35">
-        <v>9.292320134322766</v>
+        <v>2.350032721320148</v>
       </c>
       <c r="D35">
-        <v>4.980949439378697</v>
+        <v>2.226269032475391</v>
       </c>
       <c r="E35">
-        <v>8.567271803234346</v>
+        <v>2.762288118840292</v>
       </c>
       <c r="F35">
-        <v>7.652561056721516</v>
+        <v>3.109673428019866</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -1074,19 +1074,19 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>23.70556030861386</v>
+        <v>2.318149706739316</v>
       </c>
       <c r="C36">
-        <v>9.457447872330706</v>
+        <v>2.360685752433794</v>
       </c>
       <c r="D36">
-        <v>5.059132021919545</v>
+        <v>2.232658599463485</v>
       </c>
       <c r="E36">
-        <v>8.712235541298075</v>
+        <v>2.784120699475463</v>
       </c>
       <c r="F36">
-        <v>7.790967781465827</v>
+        <v>3.138931798504652</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -1094,19 +1094,19 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>24.12254317707257</v>
+        <v>2.327735595286372</v>
       </c>
       <c r="C37">
-        <v>9.62019688888161</v>
+        <v>2.371359330850807</v>
       </c>
       <c r="D37">
-        <v>5.136326320965201</v>
+        <v>2.239023582648289</v>
       </c>
       <c r="E37">
-        <v>8.854845613731339</v>
+        <v>2.805925423235136</v>
       </c>
       <c r="F37">
-        <v>7.927787008207395</v>
+        <v>3.168034411199568</v>
       </c>
     </row>
     <row r="38" spans="1:6">
@@ -1114,19 +1114,19 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>24.53054944099586</v>
+        <v>2.337350725220531</v>
       </c>
       <c r="C38">
-        <v>9.780599223072189</v>
+        <v>2.382053453662544</v>
       </c>
       <c r="D38">
-        <v>5.212537655555368</v>
+        <v>2.245363544437771</v>
       </c>
       <c r="E38">
-        <v>8.995134827503716</v>
+        <v>2.827702780777321</v>
       </c>
       <c r="F38">
-        <v>8.063035335998149</v>
+        <v>3.196984019305198</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -1134,19 +1134,19 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>24.92974785009123</v>
+        <v>2.346995239183709</v>
       </c>
       <c r="C39">
-        <v>9.938686527700881</v>
+        <v>2.392768116354512</v>
       </c>
       <c r="D39">
-        <v>5.287772203284123</v>
+        <v>2.251678074800482</v>
       </c>
       <c r="E39">
-        <v>9.133135688460353</v>
+        <v>2.849453267049032</v>
       </c>
       <c r="F39">
-        <v>8.196729231418752</v>
+        <v>3.225783328874756</v>
       </c>
     </row>
     <row r="40" spans="1:6">
@@ -1154,19 +1154,19 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>25.32030466661313</v>
+        <v>2.356669280470526</v>
       </c>
       <c r="C40">
-        <v>10.09449007709738</v>
+        <v>2.403503312813553</v>
       </c>
       <c r="D40">
-        <v>5.362036848816579</v>
+        <v>2.257966790329681</v>
       </c>
       <c r="E40">
-        <v>9.268880400335602</v>
+        <v>2.871177382016223</v>
       </c>
       <c r="F40">
-        <v>8.328885028876837</v>
+        <v>3.254434997742918</v>
       </c>
     </row>
     <row r="41" spans="1:6">
@@ -1174,19 +1174,19 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>25.70238368307611</v>
+        <v>2.366372993066337</v>
       </c>
       <c r="C41">
-        <v>10.24804077431952</v>
+        <v>2.414259035284858</v>
       </c>
       <c r="D41">
-        <v>5.435339053782524</v>
+        <v>2.264229332972468</v>
       </c>
       <c r="E41">
-        <v>9.402400863811032</v>
+        <v>2.892875631423067</v>
       </c>
       <c r="F41">
-        <v>8.459518931404642</v>
+        <v>3.282941634389844</v>
       </c>
     </row>
     <row r="42" spans="1:6">
@@ -1194,19 +1194,19 @@
         <v>40</v>
       </c>
       <c r="B42">
-        <v>26.07614623870976</v>
+        <v>2.376106521763149</v>
       </c>
       <c r="C42">
-        <v>10.39936915776365</v>
+        <v>2.425035274501844</v>
       </c>
       <c r="D42">
-        <v>5.507686749551355</v>
+        <v>2.27046536903445</v>
       </c>
       <c r="E42">
-        <v>9.533728675672585</v>
+        <v>2.914548527573357</v>
       </c>
       <c r="F42">
-        <v>8.588647011580843</v>
+        <v>3.311305796960882</v>
       </c>
     </row>
     <row r="43" spans="1:6">
@@ -1214,19 +1214,19 @@
         <v>41</v>
       </c>
       <c r="B43">
-        <v>26.4417512496453</v>
+        <v>2.385870012219232</v>
       </c>
       <c r="C43">
-        <v>10.54850540726934</v>
+        <v>2.435832019509625</v>
       </c>
       <c r="D43">
-        <v>5.579088250059513</v>
+        <v>2.276674588150116</v>
       </c>
       <c r="E43">
-        <v>9.662895128060089</v>
+        <v>2.936196590161718</v>
       </c>
       <c r="F43">
-        <v>8.71628521252973</v>
+        <v>3.339529992088827</v>
       </c>
     </row>
     <row r="44" spans="1:6">
@@ -1234,19 +1234,19 @@
         <v>42</v>
       </c>
       <c r="B44">
-        <v>26.79935520772108</v>
+        <v>2.395663611053504</v>
       </c>
       <c r="C44">
-        <v>10.69547934974704</v>
+        <v>2.4466492580005</v>
       </c>
       <c r="D44">
-        <v>5.649552179541924</v>
+        <v>2.28285670219218</v>
       </c>
       <c r="E44">
-        <v>9.789931207768097</v>
+        <v>2.957820347114454</v>
       </c>
       <c r="F44">
-        <v>8.842449348893897</v>
+        <v>3.367616674042151</v>
       </c>
     </row>
     <row r="45" spans="1:6">
@@ -1254,19 +1254,19 @@
         <v>43</v>
       </c>
       <c r="B45">
-        <v>27.14911222188291</v>
+        <v>2.405487465955594</v>
       </c>
       <c r="C45">
-        <v>10.84032046441274</v>
+        <v>2.457486976006451</v>
       </c>
       <c r="D45">
-        <v>5.719087412638657</v>
+        <v>2.289011444403154</v>
       </c>
       <c r="E45">
-        <v>9.914867595702777</v>
+        <v>2.979420335447996</v>
       </c>
       <c r="F45">
-        <v>8.967155107819615</v>
+        <v>3.395568243520806</v>
       </c>
     </row>
     <row r="46" spans="1:6">
@@ -1274,19 +1274,19 @@
         <v>44</v>
       </c>
       <c r="B46">
-        <v>27.49117403121121</v>
+        <v>2.415341725760212</v>
       </c>
       <c r="C46">
-        <v>10.98305788763414</v>
+        <v>2.4683451582691</v>
       </c>
       <c r="D46">
-        <v>5.787703023729783</v>
+        <v>2.295138568327673</v>
       </c>
       <c r="E46">
-        <v>10.03773466640925</v>
+        <v>3.000997102142044</v>
       </c>
       <c r="F46">
-        <v>9.090418049876854</v>
+        <v>3.423387046937937</v>
       </c>
     </row>
     <row r="47" spans="1:6">
@@ -1294,19 +1294,19 @@
         <v>45</v>
       </c>
       <c r="B47">
-        <v>27.82569001237541</v>
+        <v>2.425226540576989</v>
       </c>
       <c r="C47">
-        <v>11.12372041756072</v>
+        <v>2.479223788083179</v>
       </c>
       <c r="D47">
-        <v>5.855408244833106</v>
+        <v>2.301237847010962</v>
       </c>
       <c r="E47">
-        <v>10.15856248771569</v>
+        <v>3.022551205043433</v>
       </c>
       <c r="F47">
-        <v>9.212253609944993</v>
+        <v>3.451075375212986</v>
       </c>
     </row>
     <row r="48" spans="1:6">
@@ -1314,19 +1314,19 @@
         <v>46</v>
       </c>
       <c r="B48">
-        <v>28.1528072313618</v>
+        <v>2.435142061886325</v>
       </c>
       <c r="C48">
-        <v>11.26233651852112</v>
+        <v>2.490122847430591</v>
       </c>
       <c r="D48">
-        <v>5.922212430471289</v>
+        <v>2.307309072011457</v>
       </c>
       <c r="E48">
-        <v>10.27738082047397</v>
+        <v>3.044083213775359</v>
       </c>
       <c r="F48">
-        <v>9.332677097937021</v>
+        <v>3.478635463121169</v>
       </c>
     </row>
     <row r="49" spans="1:6">
@@ -1334,19 +1334,19 @@
         <v>47</v>
       </c>
       <c r="B49">
-        <v>28.47267042908544</v>
+        <v>2.445088442650365</v>
       </c>
       <c r="C49">
-        <v>11.39893432490812</v>
+        <v>2.501042317040234</v>
       </c>
       <c r="D49">
-        <v>5.988125028013085</v>
+        <v>2.313352052678176</v>
       </c>
       <c r="E49">
-        <v>10.39421911847576</v>
+        <v>3.065593710656624</v>
       </c>
       <c r="F49">
-        <v>9.451703699552519</v>
+        <v>3.506069488240534</v>
       </c>
     </row>
     <row r="50" spans="1:6">
@@ -1354,19 +1354,19 @@
         <v>48</v>
       </c>
       <c r="B50">
-        <v>28.7854220627075</v>
+        <v>2.455065837445751</v>
       </c>
       <c r="C50">
-        <v>11.53354164499479</v>
+        <v>2.511982176425307</v>
       </c>
       <c r="D50">
-        <v>6.053155552528543</v>
+        <v>2.319366615197867</v>
       </c>
       <c r="E50">
-        <v>10.50910652804795</v>
+        <v>3.08708329162964</v>
       </c>
       <c r="F50">
-        <v>9.569348476937842</v>
+        <v>3.533379570351799</v>
       </c>
     </row>
     <row r="51" spans="1:6">
@@ -1374,19 +1374,19 @@
         <v>49</v>
       </c>
       <c r="B51">
-        <v>29.09120233340814</v>
+        <v>2.465074402564618</v>
       </c>
       <c r="C51">
-        <v>11.66618596459073</v>
+        <v>2.52294240400749</v>
       </c>
       <c r="D51">
-        <v>6.117313565534726</v>
+        <v>2.325352601999575</v>
       </c>
       <c r="E51">
-        <v>10.6220718887627</v>
+        <v>3.108552567205487</v>
       </c>
       <c r="F51">
-        <v>9.685626369303213</v>
+        <v>3.560567770508893</v>
       </c>
     </row>
     <row r="52" spans="1:6">
@@ -1394,19 +1394,19 @@
         <v>50</v>
       </c>
       <c r="B52">
-        <v>29.39014919232442</v>
+        <v>2.475114296157229</v>
       </c>
       <c r="C52">
-        <v>11.79689445069197</v>
+        <v>2.53392297712187</v>
       </c>
       <c r="D52">
-        <v>6.180608657077424</v>
+        <v>2.331309870794687</v>
       </c>
       <c r="E52">
-        <v>10.73314373220195</v>
+        <v>3.130002163410893</v>
       </c>
       <c r="F52">
-        <v>9.800552193505728</v>
+        <v>3.587636090421515</v>
       </c>
     </row>
     <row r="53" spans="1:6">
@@ -1414,19 +1414,19 @@
         <v>51</v>
       </c>
       <c r="B53">
-        <v>29.68239883595906</v>
+        <v>2.485185678351913</v>
       </c>
       <c r="C53">
-        <v>11.92569395674706</v>
+        <v>2.544923872205826</v>
       </c>
       <c r="D53">
-        <v>6.243050387290758</v>
+        <v>2.337238294106108</v>
       </c>
       <c r="E53">
-        <v>10.84235028354351</v>
+        <v>3.151432722739256</v>
       </c>
       <c r="F53">
-        <v>9.914140655248893</v>
+        <v>3.614586471862339</v>
       </c>
     </row>
     <row r="54" spans="1:6">
@@ -1434,19 +1434,19 @@
         <v>52</v>
       </c>
       <c r="B54">
-        <v>29.96808376231589</v>
+        <v>2.495288711381008</v>
       </c>
       <c r="C54">
-        <v>12.0526110171002</v>
+        <v>2.555945064750661</v>
       </c>
       <c r="D54">
-        <v>6.304648446001298</v>
+        <v>2.343137758317366</v>
       </c>
       <c r="E54">
-        <v>10.9497194617745</v>
+        <v>3.172844905105887</v>
       </c>
       <c r="F54">
-        <v>10.02640630446415</v>
+        <v>3.641420795872523</v>
       </c>
     </row>
     <row r="55" spans="1:6">
@@ -1454,19 +1454,19 @@
         <v>53</v>
       </c>
       <c r="B55">
-        <v>30.24733573413016</v>
+        <v>2.505423559727045</v>
       </c>
       <c r="C55">
-        <v>12.17767187115395</v>
+        <v>2.566986529510392</v>
       </c>
       <c r="D55">
-        <v>6.365412382616383</v>
+        <v>2.349008163285912</v>
       </c>
       <c r="E55">
-        <v>11.0552788794028</v>
+        <v>3.194239388810082</v>
       </c>
       <c r="F55">
-        <v>10.13736360871748</v>
+        <v>3.668140882655809</v>
       </c>
     </row>
     <row r="56" spans="1:6">
@@ -1474,19 +1474,19 @@
         <v>54</v>
       </c>
       <c r="B56">
-        <v>30.52028408807983</v>
+        <v>2.515590390244315</v>
       </c>
       <c r="C56">
-        <v>12.30090245396441</v>
+        <v>2.578048240484177</v>
       </c>
       <c r="D56">
-        <v>6.4253517683282</v>
+        <v>2.354849421433687</v>
       </c>
       <c r="E56">
-        <v>11.15905584323296</v>
+        <v>3.215616871495918</v>
       </c>
       <c r="F56">
-        <v>10.24702689917724</v>
+        <v>3.694748490500802</v>
       </c>
     </row>
     <row r="57" spans="1:6">
@@ -1494,19 +1494,19 @@
         <v>55</v>
       </c>
       <c r="B57">
-        <v>30.78705603980648</v>
+        <v>2.525789372307786</v>
       </c>
       <c r="C57">
-        <v>12.42232839948205</v>
+        <v>2.589130171106798</v>
       </c>
       <c r="D57">
-        <v>6.484476146167784</v>
+        <v>2.360661457419625</v>
       </c>
       <c r="E57">
-        <v>11.26107735493037</v>
+        <v>3.236978071112825</v>
       </c>
       <c r="F57">
-        <v>10.35541039043982</v>
+        <v>3.72124531618315</v>
       </c>
     </row>
     <row r="58" spans="1:6">
@@ -1514,19 +1514,19 @@
         <v>56</v>
       </c>
       <c r="B58">
-        <v>31.04777653737172</v>
+        <v>2.536020677951393</v>
       </c>
       <c r="C58">
-        <v>12.54197503828254</v>
+        <v>2.60023229424889</v>
       </c>
       <c r="D58">
-        <v>6.542795023106637</v>
+        <v>2.366444207277739</v>
       </c>
       <c r="E58">
-        <v>11.36137011168325</v>
+        <v>3.258323726876352</v>
       </c>
       <c r="F58">
-        <v>10.46252817455722</v>
+        <v>3.747632993785377</v>
       </c>
     </row>
     <row r="59" spans="1:6">
@@ -1534,19 +1534,19 @@
         <v>57</v>
       </c>
       <c r="B59">
-        <v>31.3025683586353</v>
+        <v>2.546284482003918</v>
       </c>
       <c r="C59">
-        <v>12.65986740764248</v>
+        <v>2.611354582402829</v>
       </c>
       <c r="D59">
-        <v>6.600317863706539</v>
+        <v>2.372197618150512</v>
       </c>
       <c r="E59">
-        <v>11.45996050697777</v>
+        <v>3.27965460022686</v>
       </c>
       <c r="F59">
-        <v>10.56839422559546</v>
+        <v>3.773913095369237</v>
       </c>
     </row>
     <row r="60" spans="1:6">
@@ -1554,19 +1554,19 @@
         <v>58</v>
       </c>
       <c r="B60">
-        <v>31.55155227201979</v>
+        <v>2.556580962245929</v>
       </c>
       <c r="C60">
-        <v>12.7760302513852</v>
+        <v>2.622497007707129</v>
       </c>
       <c r="D60">
-        <v>6.657054086171731</v>
+        <v>2.377921647462488</v>
       </c>
       <c r="E60">
-        <v>11.5568746312714</v>
+        <v>3.300971475785333</v>
       </c>
       <c r="F60">
-        <v>10.67302239917442</v>
+        <v>3.800087129906696</v>
       </c>
     </row>
     <row r="61" spans="1:6">
@@ -1574,19 +1574,19 @@
         <v>59</v>
       </c>
       <c r="B61">
-        <v>31.79484702898673</v>
+        <v>2.566910299545181</v>
       </c>
       <c r="C61">
-        <v>12.89048802082252</v>
+        <v>2.633659542099998</v>
       </c>
       <c r="D61">
-        <v>6.713013056744972</v>
+        <v>2.383616262717254</v>
       </c>
       <c r="E61">
-        <v>11.65213827285196</v>
+        <v>3.322275162305865</v>
       </c>
       <c r="F61">
-        <v>10.77642643241512</v>
+        <v>3.826156544092971</v>
       </c>
     </row>
     <row r="62" spans="1:6">
@@ -1594,19 +1594,19 @@
         <v>60</v>
       </c>
       <c r="B62">
-        <v>32.03256935715878</v>
+        <v>2.577272678012365</v>
       </c>
       <c r="C62">
-        <v>13.00326487786839</v>
+        <v>2.644842157396215</v>
       </c>
       <c r="D62">
-        <v>6.768204085227794</v>
+        <v>2.389281440702142</v>
       </c>
       <c r="E62">
-        <v>11.74577691882893</v>
+        <v>3.343566493610061</v>
       </c>
       <c r="F62">
-        <v>10.87861994435701</v>
+        <v>3.852122721500969</v>
       </c>
     </row>
     <row r="63" spans="1:6">
@@ -1614,19 +1614,19 @@
         <v>61</v>
       </c>
       <c r="B63">
-        <v>32.26483400101215</v>
+        <v>2.587668285150917</v>
       </c>
       <c r="C63">
-        <v>13.11438469751373</v>
+        <v>2.656044825392959</v>
       </c>
       <c r="D63">
-        <v>6.822636422455882</v>
+        <v>2.394917167337768</v>
       </c>
       <c r="E63">
-        <v>11.83781575629637</v>
+        <v>3.364846329557019</v>
       </c>
       <c r="F63">
-        <v>10.97961643639945</v>
+        <v>3.877986983443971</v>
       </c>
     </row>
     <row r="64" spans="1:6">
@@ -1634,19 +1634,19 @@
         <v>62</v>
       </c>
       <c r="B64">
-        <v>32.4917537480019</v>
+        <v>2.59809731200273</v>
       </c>
       <c r="C64">
-        <v>13.22387106984737</v>
+        <v>2.667267517986903</v>
       </c>
       <c r="D64">
-        <v>6.876319257295632</v>
+        <v>2.400523436921289</v>
       </c>
       <c r="E64">
-        <v>11.92827967406732</v>
+        <v>3.386115556938938</v>
       </c>
       <c r="F64">
-        <v>11.07942929270035</v>
+        <v>3.903750588461547</v>
       </c>
     </row>
     <row r="65" spans="1:6">
@@ -1654,19 +1654,19 @@
         <v>63</v>
       </c>
       <c r="B65">
-        <v>32.7134394310898</v>
+        <v>2.608559953311515</v>
       </c>
       <c r="C65">
-        <v>13.33174730195326</v>
+        <v>2.678510207258768</v>
       </c>
       <c r="D65">
-        <v>6.929261714445144</v>
+        <v>2.406100252012817</v>
       </c>
       <c r="E65">
-        <v>12.01719326209122</v>
+        <v>3.40737509045311</v>
       </c>
       <c r="F65">
-        <v>11.17807178050777</v>
+        <v>3.929414733121937</v>
       </c>
     </row>
     <row r="66" spans="1:6">
@@ -1674,19 +1674,19 @@
         <v>64</v>
       </c>
       <c r="B66">
-        <v>32.92999995761143</v>
+        <v>2.619056407669802</v>
       </c>
       <c r="C66">
-        <v>13.43803642030128</v>
+        <v>2.689772865603105</v>
       </c>
       <c r="D66">
-        <v>6.981472851540505</v>
+        <v>2.411647622723994</v>
       </c>
       <c r="E66">
-        <v>12.10458082166264</v>
+        <v>3.428625873543627</v>
       </c>
       <c r="F66">
-        <v>11.27555705057938</v>
+        <v>3.95498055196338</v>
       </c>
     </row>
     <row r="67" spans="1:6">
@@ -1694,19 +1694,19 @@
         <v>65</v>
       </c>
       <c r="B67">
-        <v>33.14154233510789</v>
+        <v>2.629586877680297</v>
       </c>
       <c r="C67">
-        <v>13.54276117312918</v>
+        <v>2.70105546581088</v>
       </c>
       <c r="D67">
-        <v>7.032961657282756</v>
+        <v>2.417165566632599</v>
       </c>
       <c r="E67">
-        <v>12.19046635004739</v>
+        <v>3.449868879395002</v>
       </c>
       <c r="F67">
-        <v>11.37189813751832</v>
+        <v>3.980449118110808</v>
       </c>
     </row>
     <row r="68" spans="1:6">
@@ -1714,19 +1714,19 @@
         <v>66</v>
       </c>
       <c r="B68">
-        <v>33.34817169673574</v>
+        <v>2.640151570115282</v>
       </c>
       <c r="C68">
-        <v>13.64594403263032</v>
+        <v>2.712357981200325</v>
       </c>
       <c r="D68">
-        <v>7.083737049899716</v>
+        <v>2.422654108115697</v>
       </c>
       <c r="E68">
-        <v>12.2748735419081</v>
+        <v>3.471105111709091</v>
       </c>
       <c r="F68">
-        <v>11.46710796014672</v>
+        <v>4.005821443804799</v>
       </c>
     </row>
     <row r="69" spans="1:6">
@@ -1734,19 +1734,19 @@
         <v>67</v>
       </c>
       <c r="B69">
-        <v>33.54999127649013</v>
+        <v>2.650750696070578</v>
       </c>
       <c r="C69">
-        <v>13.74760719711255</v>
+        <v>2.723680385702172</v>
       </c>
       <c r="D69">
-        <v>7.133807875890178</v>
+        <v>2.42811327829011</v>
       </c>
       <c r="E69">
-        <v>12.35782580559443</v>
+        <v>3.492335605704019</v>
       </c>
       <c r="F69">
-        <v>11.56119932193453</v>
+        <v>4.031098480696437</v>
       </c>
     </row>
     <row r="70" spans="1:6">
@@ -1754,19 +1754,19 @@
         <v>68</v>
       </c>
       <c r="B70">
-        <v>33.74710256426407</v>
+        <v>2.661384471135467</v>
       </c>
       <c r="C70">
-        <v>13.84777259323536</v>
+        <v>2.735022653988779</v>
       </c>
       <c r="D70">
-        <v>7.18318290882524</v>
+        <v>2.433543114386983</v>
       </c>
       <c r="E70">
-        <v>12.43934626689234</v>
+        <v>3.513561428828865</v>
       </c>
       <c r="F70">
-        <v>11.65418491142353</v>
+        <v>4.056281121099103</v>
       </c>
     </row>
     <row r="71" spans="1:6">
@@ -1774,19 +1774,19 @@
         <v>69</v>
       </c>
       <c r="B71">
-        <v>33.93960507330285</v>
+        <v>2.672053115549198</v>
       </c>
       <c r="C71">
-        <v>13.94646187833394</v>
+        <v>2.746384761563612</v>
       </c>
       <c r="D71">
-        <v>7.231870848233229</v>
+        <v>2.438943659717209</v>
       </c>
       <c r="E71">
-        <v>12.51945775102404</v>
+        <v>3.534783681771044</v>
       </c>
       <c r="F71">
-        <v>11.74607730265512</v>
+        <v>4.081370197865338</v>
       </c>
     </row>
     <row r="72" spans="1:6">
@@ -1794,19 +1794,19 @@
         <v>70</v>
       </c>
       <c r="B72">
-        <v>34.1275967286338</v>
+        <v>2.682756854368541</v>
       </c>
       <c r="C72">
-        <v>14.04369644250888</v>
+        <v>2.757766684885201</v>
       </c>
       <c r="D72">
-        <v>7.279880318770238</v>
+        <v>2.444314963080228</v>
       </c>
       <c r="E72">
-        <v>12.59818280589235</v>
+        <v>3.556003499113027</v>
       </c>
       <c r="F72">
-        <v>11.83688895558676</v>
+        <v>4.106366486263774</v>
       </c>
     </row>
     <row r="73" spans="1:6">
@@ -1814,19 +1814,19 @@
         <v>71</v>
       </c>
       <c r="B73">
-        <v>34.31117351424364</v>
+        <v>2.693495917636193</v>
       </c>
       <c r="C73">
-        <v>14.13949741050336</v>
+        <v>2.769168401463895</v>
       </c>
       <c r="D73">
-        <v>7.327219869135797</v>
+        <v>2.44965707874166</v>
       </c>
       <c r="E73">
-        <v>12.67554368561782</v>
+        <v>3.577222050308416</v>
       </c>
       <c r="F73">
-        <v>11.92663221645936</v>
+        <v>4.131270703775108</v>
       </c>
     </row>
     <row r="74" spans="1:6">
@@ -1834,19 +1834,19 @@
         <v>72</v>
       </c>
       <c r="B74">
-        <v>34.4904297696033</v>
+        <v>2.70427054054234</v>
       </c>
       <c r="C74">
-        <v>14.23388564465999</v>
+        <v>2.780589889976991</v>
       </c>
       <c r="D74">
-        <v>7.373897971911296</v>
+        <v>2.454970065894333</v>
       </c>
       <c r="E74">
-        <v>12.7515623651279</v>
+        <v>3.598440540247143</v>
       </c>
       <c r="F74">
-        <v>12.01531931824391</v>
+        <v>4.156083512162773</v>
       </c>
     </row>
     <row r="75" spans="1:6">
@@ -1854,19 +1854,19 @@
         <v>73</v>
       </c>
       <c r="B75">
-        <v>34.66545812175092</v>
+        <v>2.715080963602295</v>
       </c>
       <c r="C75">
-        <v>14.32688174651283</v>
+        <v>2.792031130374402</v>
       </c>
       <c r="D75">
-        <v>7.419923022067386</v>
+        <v>2.460253988651592</v>
       </c>
       <c r="E75">
-        <v>12.82626053067609</v>
+        <v>3.619660210261135</v>
       </c>
       <c r="F75">
-        <v>12.10296238110021</v>
+        <v>4.18080551748442</v>
       </c>
     </row>
     <row r="76" spans="1:6">
@@ -1874,19 +1874,19 @@
         <v>74</v>
       </c>
       <c r="B76">
-        <v>34.83634947880405</v>
+        <v>2.725927432828032</v>
       </c>
       <c r="C76">
-        <v>14.41850605952129</v>
+        <v>2.803492103986279</v>
       </c>
       <c r="D76">
-        <v>7.465303337966324</v>
+        <v>2.465508915534433</v>
       </c>
       <c r="E76">
-        <v>12.89965959202044</v>
+        <v>3.640882338569175</v>
       </c>
       <c r="F76">
-        <v>12.18957341284816</v>
+        <v>4.205437272174268</v>
       </c>
     </row>
     <row r="77" spans="1:6">
@@ -1894,19 +1894,19 @@
         <v>75</v>
       </c>
       <c r="B77">
-        <v>35.00319309716848</v>
+        <v>2.736810199892542</v>
       </c>
       <c r="C77">
-        <v>14.50877867092257</v>
+        <v>2.814972793631703</v>
       </c>
       <c r="D77">
-        <v>7.510047160355756</v>
+        <v>2.470734919480169</v>
       </c>
       <c r="E77">
-        <v>12.97178067603281</v>
+        <v>3.662108241279562</v>
       </c>
       <c r="F77">
-        <v>12.27516430937422</v>
+        <v>4.229979275362759</v>
       </c>
     </row>
     <row r="78" spans="1:6">
@@ -1914,19 +1914,19 @@
         <v>76</v>
       </c>
       <c r="B78">
-        <v>35.16607659365962</v>
+        <v>2.747729522302597</v>
       </c>
       <c r="C78">
-        <v>14.59771941408057</v>
+        <v>2.826473183725789</v>
       </c>
       <c r="D78">
-        <v>7.554162651917068</v>
+        <v>2.475932077368901</v>
       </c>
       <c r="E78">
-        <v>13.04264464352593</v>
+        <v>3.683339272718937</v>
       </c>
       <c r="F78">
-        <v>12.35974685520246</v>
+        <v>4.254431974884658</v>
       </c>
     </row>
     <row r="79" spans="1:6">
@@ -1934,19 +1934,19 @@
         <v>77</v>
       </c>
       <c r="B79">
-        <v>35.32508592759388</v>
+        <v>2.758685663610645</v>
       </c>
       <c r="C79">
-        <v>14.68534787053209</v>
+        <v>2.837993260385897</v>
       </c>
       <c r="D79">
-        <v>7.597657897610655</v>
+        <v>2.481100470033466</v>
       </c>
       <c r="E79">
-        <v>13.1122720544333</v>
+        <v>3.704576826427414</v>
       </c>
       <c r="F79">
-        <v>12.44333272378698</v>
+        <v>4.278795767957552</v>
       </c>
     </row>
     <row r="80" spans="1:6">
@@ -1954,19 +1954,19 @@
         <v>78</v>
       </c>
       <c r="B80">
-        <v>35.48030547925999</v>
+        <v>2.769678893511496</v>
       </c>
       <c r="C80">
-        <v>14.77168337229386</v>
+        <v>2.849533011541118</v>
       </c>
       <c r="D80">
-        <v>7.640540903755503</v>
+        <v>2.486240181827231</v>
       </c>
       <c r="E80">
-        <v>13.18068320568105</v>
+        <v>3.725822335341809</v>
       </c>
       <c r="F80">
-        <v>12.52593347816771</v>
+        <v>4.303071003043235</v>
       </c>
     </row>
     <row r="81" spans="1:6">
@@ -1974,19 +1974,19 @@
         <v>79</v>
       </c>
       <c r="B81">
-        <v>35.63181803521316</v>
+        <v>2.780709488135054</v>
       </c>
       <c r="C81">
-        <v>14.8567450040122</v>
+        <v>2.861092427034576</v>
       </c>
       <c r="D81">
-        <v>7.682819598671895</v>
+        <v>2.491351300641626</v>
       </c>
       <c r="E81">
-        <v>13.24789815220935</v>
+        <v>3.747077272792466</v>
       </c>
       <c r="F81">
-        <v>12.6075605713936</v>
+        <v>4.327257980922097</v>
       </c>
     </row>
     <row r="82" spans="1:6">
@@ -1994,19 +1994,19 @@
         <v>80</v>
       </c>
       <c r="B82">
-        <v>35.77970481890705</v>
+        <v>2.791777730135845</v>
       </c>
       <c r="C82">
-        <v>14.94055160523722</v>
+        <v>2.87267149873555</v>
       </c>
       <c r="D82">
-        <v>7.72450183226285</v>
+        <v>2.4964339175006</v>
       </c>
       <c r="E82">
-        <v>13.31393662160665</v>
+        <v>3.768343152512001</v>
       </c>
       <c r="F82">
-        <v>12.68822534706526</v>
+        <v>4.351356956349385</v>
       </c>
     </row>
     <row r="83" spans="1:6">
@@ -2014,19 +2014,19 @@
         <v>81</v>
       </c>
       <c r="B83">
-        <v>35.92404551746632</v>
+        <v>2.802883908902063</v>
       </c>
       <c r="C83">
-        <v>15.02312177257927</v>
+        <v>2.884270220637925</v>
       </c>
       <c r="D83">
-        <v>7.76559537587529</v>
+        <v>2.501488126581221</v>
       </c>
       <c r="E83">
-        <v>13.37881808503641</v>
+        <v>3.789621529632385</v>
       </c>
       <c r="F83">
-        <v>12.76793903980482</v>
+        <v>4.375368139869415</v>
       </c>
     </row>
     <row r="84" spans="1:6">
@@ -2034,19 +2034,19 @@
         <v>82</v>
       </c>
       <c r="B84">
-        <v>36.06491830631088</v>
+        <v>2.814028320814299</v>
       </c>
       <c r="C84">
-        <v>15.10447386195809</v>
+        <v>2.895888588974542</v>
       </c>
       <c r="D84">
-        <v>7.806107922672849</v>
+        <v>2.506514024845294</v>
       </c>
       <c r="E84">
-        <v>13.44256178158338</v>
+        <v>3.810914000495397</v>
       </c>
       <c r="F84">
-        <v>12.84671277578069</v>
+        <v>4.399291698632877</v>
       </c>
     </row>
     <row r="85" spans="1:6">
@@ -2054,19 +2054,19 @@
         <v>83</v>
       </c>
       <c r="B85">
-        <v>36.20239986022363</v>
+        <v>2.82521126930075</v>
       </c>
       <c r="C85">
-        <v>15.18462599076614</v>
+        <v>2.907526602312982</v>
       </c>
       <c r="D85">
-        <v>7.846047088040674</v>
+        <v>2.511511712060277</v>
       </c>
       <c r="E85">
-        <v>13.50518667425865</v>
+        <v>3.832222203644449</v>
       </c>
       <c r="F85">
-        <v>12.92455757321906</v>
+        <v>4.42312775778369</v>
       </c>
     </row>
     <row r="86" spans="1:6">
@@ -2074,19 +2074,19 @@
         <v>84</v>
       </c>
       <c r="B86">
-        <v>36.33656601443169</v>
+        <v>2.836433065168728</v>
       </c>
       <c r="C86">
-        <v>15.26359627663216</v>
+        <v>2.919184261670322</v>
       </c>
       <c r="D86">
-        <v>7.885420409218322</v>
+        <v>2.516481290459216</v>
       </c>
       <c r="E86">
-        <v>13.56671146507416</v>
+        <v>3.85354781940571</v>
       </c>
       <c r="F86">
-        <v>13.0014844795614</v>
+        <v>4.4468764046964</v>
       </c>
     </row>
     <row r="87" spans="1:6">
@@ -2094,19 +2094,19 @@
         <v>85</v>
       </c>
       <c r="B87">
-        <v>36.46748962028673</v>
+        <v>2.847694026701112</v>
       </c>
       <c r="C87">
-        <v>15.34140231412621</v>
+        <v>2.930861570605837</v>
       </c>
       <c r="D87">
-        <v>7.924235345643493</v>
+        <v>2.521422864766907</v>
       </c>
       <c r="E87">
-        <v>13.62715458778469</v>
+        <v>3.8748925708749</v>
       </c>
       <c r="F87">
-        <v>13.07750470917516</v>
+        <v>4.470537686025391</v>
       </c>
     </row>
     <row r="88" spans="1:6">
@@ -2114,19 +2114,19 @@
         <v>86</v>
       </c>
       <c r="B88">
-        <v>36.59524282372831</v>
+        <v>2.858994479881981</v>
       </c>
       <c r="C88">
-        <v>15.4180609623573</v>
+        <v>2.942558535335694</v>
       </c>
       <c r="D88">
-        <v>7.962499279086964</v>
+        <v>2.526336541879319</v>
       </c>
       <c r="E88">
-        <v>13.68653422641401</v>
+        <v>3.896258223228953</v>
       </c>
       <c r="F88">
-        <v>13.15262840164839</v>
+        <v>4.494111612296479</v>
       </c>
     </row>
     <row r="89" spans="1:6">
@@ -2134,19 +2134,19 @@
         <v>87</v>
       </c>
       <c r="B89">
-        <v>36.71989699905294</v>
+        <v>2.870334758646455</v>
       </c>
       <c r="C89">
-        <v>15.49358965458103</v>
+        <v>2.95427516483169</v>
       </c>
       <c r="D89">
-        <v>8.000219509828968</v>
+        <v>2.53122243087783</v>
       </c>
       <c r="E89">
-        <v>13.74486828370732</v>
+        <v>3.917646584710194</v>
       </c>
       <c r="F89">
-        <v>13.22686567125712</v>
+        <v>4.517598161700588</v>
       </c>
     </row>
     <row r="90" spans="1:6">
@@ -2154,19 +2154,19 @@
         <v>88</v>
       </c>
       <c r="B90">
-        <v>36.84152176770275</v>
+        <v>2.881715204972545</v>
       </c>
       <c r="C90">
-        <v>15.56800545415623</v>
+        <v>2.966011470927086</v>
       </c>
       <c r="D90">
-        <v>8.037403265399165</v>
+        <v>2.536080642819499</v>
       </c>
       <c r="E90">
-        <v>13.80217442556727</v>
+        <v>3.939059505625794</v>
       </c>
       <c r="F90">
-        <v>13.30022722303717</v>
+        <v>4.540997276148592</v>
       </c>
     </row>
     <row r="91" spans="1:6">
@@ -2174,19 +2174,19 @@
         <v>89</v>
       </c>
       <c r="B91">
-        <v>36.96018535842948</v>
+        <v>2.893136169224284</v>
       </c>
       <c r="C91">
-        <v>15.64132510158562</v>
+        <v>2.977767468418703</v>
       </c>
       <c r="D91">
-        <v>8.074057697015979</v>
+        <v>2.540911290643817</v>
       </c>
       <c r="E91">
-        <v>13.85847009292207</v>
+        <v>3.960498879328123</v>
       </c>
       <c r="F91">
-        <v>13.37272368406006</v>
+        <v>4.564308867295999</v>
       </c>
     </row>
     <row r="92" spans="1:6">
@@ -2194,19 +2194,19 @@
         <v>90</v>
       </c>
       <c r="B92">
-        <v>37.07595460444838</v>
+        <v>2.904598010242188</v>
       </c>
       <c r="C92">
-        <v>15.7135651060136</v>
+        <v>2.989543175169044</v>
       </c>
       <c r="D92">
-        <v>8.110189882169623</v>
+        <v>2.545714489032664</v>
       </c>
       <c r="E92">
-        <v>13.91377246883827</v>
+        <v>3.981966640857996</v>
       </c>
       <c r="F92">
-        <v>13.44436539480002</v>
+        <v>4.587532818451306</v>
       </c>
     </row>
     <row r="93" spans="1:6">
@@ -2214,19 +2214,19 @@
         <v>91</v>
       </c>
       <c r="B93">
-        <v>37.18889501193037</v>
+        <v>2.916101095602049</v>
       </c>
       <c r="C93">
-        <v>15.78474179732902</v>
+        <v>3.001338612212942</v>
       </c>
       <c r="D93">
-        <v>8.145806808226524</v>
+        <v>2.550490354299411</v>
       </c>
       <c r="E93">
-        <v>13.96809848172003</v>
+        <v>4.003464767917502</v>
       </c>
       <c r="F93">
-        <v>13.51516251830554</v>
+        <v>4.610668983162793</v>
       </c>
     </row>
     <row r="94" spans="1:6">
@@ -2234,19 +2234,19 @@
         <v>92</v>
       </c>
       <c r="B94">
-        <v>37.29907075103569</v>
+        <v>2.927645801885112</v>
       </c>
       <c r="C94">
-        <v>15.85487122495326</v>
+        <v>3.01315380385511</v>
       </c>
       <c r="D94">
-        <v>8.180915398290797</v>
+        <v>2.555239004279477</v>
       </c>
       <c r="E94">
-        <v>14.0214648124669</v>
+        <v>4.024995279108097</v>
       </c>
       <c r="F94">
-        <v>13.58512510956672</v>
+        <v>4.633717189532968</v>
       </c>
     </row>
     <row r="95" spans="1:6">
@@ -2254,19 +2254,19 @@
         <v>93</v>
       </c>
       <c r="B95">
-        <v>37.4065447384958</v>
+        <v>2.939232514757892</v>
       </c>
       <c r="C95">
-        <v>15.92396922437841</v>
+        <v>3.024988777778526</v>
       </c>
       <c r="D95">
-        <v>8.215522502910051</v>
+        <v>2.559960558239635</v>
       </c>
       <c r="E95">
-        <v>14.07388788105624</v>
+        <v>4.046560234892967</v>
       </c>
       <c r="F95">
-        <v>13.65426312943748</v>
+        <v>4.656677241338812</v>
       </c>
     </row>
     <row r="96" spans="1:6">
@@ -2274,19 +2274,19 @@
         <v>94</v>
       </c>
       <c r="B96">
-        <v>37.5113786635888</v>
+        <v>2.950861629372668</v>
       </c>
       <c r="C96">
-        <v>15.9920514352461</v>
+        <v>3.036843565141639</v>
       </c>
       <c r="D96">
-        <v>8.249634886518987</v>
+        <v>2.564655136766212</v>
       </c>
       <c r="E96">
-        <v>14.12538375746576</v>
+        <v>4.068161735374747</v>
       </c>
       <c r="F96">
-        <v>13.72258644159467</v>
+        <v>4.679548919243349</v>
       </c>
     </row>
     <row r="97" spans="1:6">
@@ -2294,19 +2294,19 @@
         <v>95</v>
       </c>
       <c r="B97">
-        <v>37.61363292951801</v>
+        <v>2.962533550434544</v>
       </c>
       <c r="C97">
-        <v>16.05913325322918</v>
+        <v>3.048718200685601</v>
       </c>
       <c r="D97">
-        <v>8.283259264216381</v>
+        <v>2.56932286168705</v>
       </c>
       <c r="E97">
-        <v>14.17596860698414</v>
+        <v>4.08980192124482</v>
       </c>
       <c r="F97">
-        <v>13.79010477478603</v>
+        <v>4.702331982589098</v>
       </c>
     </row>
     <row r="98" spans="1:6">
@@ -2314,19 +2314,19 @@
         <v>96</v>
       </c>
       <c r="B98">
-        <v>37.71336677479759</v>
+        <v>2.974248692504132</v>
       </c>
       <c r="C98">
-        <v>16.12522990652465</v>
+        <v>3.060612722832549</v>
       </c>
       <c r="D98">
-        <v>8.316402228728386</v>
+        <v>2.573963855975503</v>
       </c>
       <c r="E98">
-        <v>14.22565792923374</v>
+        <v>4.11148297104156</v>
       </c>
       <c r="F98">
-        <v>13.85682784261435</v>
+        <v>4.725026171330531</v>
       </c>
     </row>
     <row r="99" spans="1:6">
@@ -2334,19 +2334,19 @@
         <v>97</v>
       </c>
       <c r="B99">
-        <v>37.81063823137333</v>
+        <v>2.986007480286658</v>
       </c>
       <c r="C99">
-        <v>16.19035637222563</v>
+        <v>3.072527173791547</v>
       </c>
       <c r="D99">
-        <v>8.349070243174079</v>
+        <v>2.578578243662425</v>
       </c>
       <c r="E99">
-        <v>14.27446755569186</v>
+        <v>4.133207102081816</v>
       </c>
       <c r="F99">
-        <v>13.92276517251374</v>
+        <v>4.747631207783097</v>
       </c>
     </row>
     <row r="100" spans="1:6">
@@ -2354,19 +2354,19 @@
         <v>98</v>
       </c>
       <c r="B100">
-        <v>37.905504147483</v>
+        <v>2.99781034870742</v>
       </c>
       <c r="C100">
-        <v>16.25452746388084</v>
+        <v>3.084461599658518</v>
       </c>
       <c r="D100">
-        <v>8.381269898137944</v>
+        <v>2.583166149757403</v>
       </c>
       <c r="E100">
-        <v>14.32241253685498</v>
+        <v>4.154976567138999</v>
       </c>
       <c r="F100">
-        <v>13.98792630408122</v>
+        <v>4.770146797204466</v>
       </c>
     </row>
     <row r="101" spans="1:6">
@@ -2374,19 +2374,19 @@
         <v>99</v>
       </c>
       <c r="B101">
-        <v>37.99802023963983</v>
+        <v>3.009657743365335</v>
       </c>
       <c r="C101">
-        <v>16.31775776188313</v>
+        <v>3.09641605052028</v>
       </c>
       <c r="D101">
-        <v>8.413007658724446</v>
+        <v>2.587727700173787</v>
       </c>
       <c r="E101">
-        <v>14.3695080884968</v>
+        <v>4.17679365534878</v>
       </c>
       <c r="F101">
-        <v>14.05232057342374</v>
+        <v>4.792572630818761</v>
       </c>
     </row>
     <row r="102" spans="1:6">
@@ -2394,19 +2394,19 @@
         <v>100</v>
       </c>
       <c r="B102">
-        <v>38.08824097927148</v>
+        <v>3.021550120583089</v>
       </c>
       <c r="C102">
-        <v>16.38006166742421</v>
+        <v>3.108390580557217</v>
       </c>
       <c r="D102">
-        <v>8.444289808953743</v>
+        <v>2.592263021648952</v>
       </c>
       <c r="E102">
-        <v>14.41576893112635</v>
+        <v>4.198660688245478</v>
       </c>
       <c r="F102">
-        <v>14.11595727704738</v>
+        <v>4.814908386726193</v>
       </c>
     </row>
     <row r="103" spans="1:6">
@@ -2414,19 +2414,19 @@
         <v>101</v>
       </c>
       <c r="B103">
-        <v>38.17621989593865</v>
+        <v>3.033487947758162</v>
       </c>
       <c r="C103">
-        <v>16.44145336796353</v>
+        <v>3.120385248145343</v>
       </c>
       <c r="D103">
-        <v>8.475122629261849</v>
+        <v>2.596772241680601</v>
       </c>
       <c r="E103">
-        <v>14.46120965003137</v>
+        <v>4.220580020631086</v>
       </c>
       <c r="F103">
-        <v>14.17884556625603</v>
+        <v>4.837153730376153</v>
       </c>
     </row>
     <row r="104" spans="1:6">
@@ -2434,19 +2434,19 @@
         <v>102</v>
       </c>
       <c r="B104">
-        <v>38.26200916992005</v>
+        <v>3.04547170366705</v>
       </c>
       <c r="C104">
-        <v>16.50194686300522</v>
+        <v>3.132400115960926</v>
       </c>
       <c r="D104">
-        <v>8.505512266822487</v>
+        <v>2.601255488459939</v>
       </c>
       <c r="E104">
-        <v>14.50584460350564</v>
+        <v>4.242554035908585</v>
       </c>
       <c r="F104">
-        <v>14.24099451958856</v>
+        <v>4.859308318267282</v>
       </c>
     </row>
     <row r="105" spans="1:6">
@@ -2454,19 +2454,19 @@
         <v>103</v>
       </c>
       <c r="B105">
-        <v>38.34566006333523</v>
+        <v>3.057501878545061</v>
       </c>
       <c r="C105">
-        <v>16.56155594780374</v>
+        <v>3.144435251083224</v>
       </c>
       <c r="D105">
-        <v>8.535464837522529</v>
+        <v>2.605712890803222</v>
       </c>
       <c r="E105">
-        <v>14.54968789707016</v>
+        <v>4.264585146900094</v>
       </c>
       <c r="F105">
-        <v>14.30241310555562</v>
+        <v>4.881371797855165</v>
       </c>
     </row>
     <row r="106" spans="1:6">
@@ -2474,19 +2474,19 @@
         <v>104</v>
       </c>
       <c r="B106">
-        <v>38.42722276309877</v>
+        <v>3.069578974604061</v>
       </c>
       <c r="C106">
-        <v>16.62029423145381</v>
+        <v>3.15649072509733</v>
       </c>
       <c r="D106">
-        <v>8.564986354044954</v>
+        <v>2.610144578095227</v>
       </c>
       <c r="E106">
-        <v>14.59275345829341</v>
+        <v>4.286675790418748</v>
       </c>
       <c r="F106">
-        <v>14.36311021102036</v>
+        <v>4.90334380822174</v>
       </c>
     </row>
     <row r="107" spans="1:6">
@@ -2494,19 +2494,19 @@
         <v>105</v>
       </c>
       <c r="B107">
-        <v>38.50674626809933</v>
+        <v>3.081703506052547</v>
       </c>
       <c r="C107">
-        <v>16.67817512247392</v>
+        <v>3.168566614199888</v>
       </c>
       <c r="D107">
-        <v>8.594082795886417</v>
+        <v>2.614550680230666</v>
       </c>
       <c r="E107">
-        <v>14.63505499242924</v>
+        <v>4.30882842801689</v>
       </c>
       <c r="F107">
-        <v>14.42309461823912</v>
+        <v>4.925223984104465</v>
       </c>
     </row>
     <row r="108" spans="1:6">
@@ -2514,19 +2514,19 @@
         <v>106</v>
       </c>
       <c r="B108">
-        <v>38.584278804204</v>
+        <v>3.09387599951235</v>
       </c>
       <c r="C108">
-        <v>16.735211850489</v>
+        <v>3.180662999300838</v>
       </c>
       <c r="D108">
-        <v>8.622760056508749</v>
+        <v>2.618931327555587</v>
       </c>
       <c r="E108">
-        <v>14.67660599862804</v>
+        <v>4.331045539745204</v>
       </c>
       <c r="F108">
-        <v>14.48237502655336</v>
+        <v>4.947011954805657</v>
       </c>
     </row>
     <row r="109" spans="1:6">
@@ -2534,19 +2534,19 @@
         <v>107</v>
       </c>
       <c r="B109">
-        <v>38.65986729808821</v>
+        <v>3.106096994339678</v>
       </c>
       <c r="C109">
-        <v>16.79141744844654</v>
+        <v>3.192779966133414</v>
       </c>
       <c r="D109">
-        <v>8.651023972870741</v>
+        <v>2.623286650817723</v>
       </c>
       <c r="E109">
-        <v>14.71741978051515</v>
+        <v>4.353329624805286</v>
       </c>
       <c r="F109">
-        <v>14.54096003752035</v>
+        <v>4.968707345442209</v>
       </c>
     </row>
     <row r="110" spans="1:6">
@@ -2554,19 +2554,19 @@
         <v>108</v>
       </c>
       <c r="B110">
-        <v>38.73355792214215</v>
+        <v>3.11836704270723</v>
       </c>
       <c r="C110">
-        <v>16.84680478275035</v>
+        <v>3.204917605351768</v>
       </c>
       <c r="D110">
-        <v>8.678880311946836</v>
+        <v>2.627616781116657</v>
       </c>
       <c r="E110">
-        <v>14.75750942310744</v>
+        <v>4.375683194456125</v>
       </c>
       <c r="F110">
-        <v>14.59885816257383</v>
+        <v>4.990309780775797</v>
       </c>
     </row>
     <row r="111" spans="1:6">
@@ -2574,19 +2574,19 @@
         <v>109</v>
       </c>
       <c r="B111">
-        <v>38.80539573449118</v>
+        <v>3.130686710194738</v>
       </c>
       <c r="C111">
-        <v>16.90138651338084</v>
+        <v>3.217076012647237</v>
       </c>
       <c r="D111">
-        <v>8.706334772105299</v>
+        <v>2.631921849850271</v>
       </c>
       <c r="E111">
-        <v>14.79688781251199</v>
+        <v>4.398108772537578</v>
       </c>
       <c r="F111">
-        <v>14.65607782024586</v>
+        <v>5.011818883153969</v>
       </c>
     </row>
     <row r="112" spans="1:6">
@@ -2594,19 +2594,19 @@
         <v>110</v>
       </c>
       <c r="B112">
-        <v>38.87542484116489</v>
+        <v>3.143056575778095</v>
       </c>
       <c r="C112">
-        <v>16.95517511388351</v>
+        <v>3.229255288842295</v>
       </c>
       <c r="D112">
-        <v>8.733392979680374</v>
+        <v>2.636201988676522</v>
       </c>
       <c r="E112">
-        <v>14.83556763691925</v>
+        <v>4.420608887500536</v>
       </c>
       <c r="F112">
-        <v>14.71262733715439</v>
+        <v>5.033234275038916</v>
       </c>
     </row>
     <row r="113" spans="1:6">
@@ -2614,19 +2614,19 @@
         <v>111</v>
       </c>
       <c r="B113">
-        <v>38.94368851911704</v>
+        <v>3.155477232320529</v>
       </c>
       <c r="C113">
-        <v>17.00818292891948</v>
+        <v>3.241455540012106</v>
       </c>
       <c r="D113">
-        <v>8.760060495655578</v>
+        <v>2.640457329465424</v>
       </c>
       <c r="E113">
-        <v>14.87356138917321</v>
+        <v>4.443186072758722</v>
       </c>
       <c r="F113">
-        <v>14.76851495040684</v>
+        <v>5.054555581650519</v>
       </c>
     </row>
     <row r="114" spans="1:6">
@@ -2634,19 +2634,19 @@
         <v>112</v>
       </c>
       <c r="B114">
-        <v>39.01022892120032</v>
+        <v>3.167949286906481</v>
       </c>
       <c r="C114">
-        <v>17.06042207488972</v>
+        <v>3.253676877576447</v>
       </c>
       <c r="D114">
-        <v>8.7863428136873</v>
+        <v>2.644688004256194</v>
       </c>
       <c r="E114">
-        <v>14.91088133984985</v>
+        <v>4.465842857841165</v>
       </c>
       <c r="F114">
-        <v>14.8237488064875</v>
+        <v>5.075782428360613</v>
       </c>
     </row>
     <row r="115" spans="1:6">
@@ -2654,19 +2654,19 @@
         <v>113</v>
       </c>
       <c r="B115">
-        <v>39.07508753967702</v>
+        <v>3.180473360936388</v>
       </c>
       <c r="C115">
-        <v>17.11190448834916</v>
+        <v>3.26591941842406</v>
       </c>
       <c r="D115">
-        <v>8.812245364649716</v>
+        <v>2.648894145216997</v>
       </c>
       <c r="E115">
-        <v>14.94753955820036</v>
+        <v>4.488581768518962</v>
       </c>
       <c r="F115">
-        <v>14.87833695847166</v>
+        <v>5.096914444989329</v>
       </c>
     </row>
     <row r="116" spans="1:6">
@@ -2674,19 +2674,19 @@
         <v>114</v>
       </c>
       <c r="B116">
-        <v>39.13830473278375</v>
+        <v>3.193050090793707</v>
       </c>
       <c r="C116">
-        <v>17.16264195686535</v>
+        <v>3.278183285007483</v>
       </c>
       <c r="D116">
-        <v>8.837773502137891</v>
+        <v>2.653075884606937</v>
       </c>
       <c r="E116">
-        <v>14.98354799744789</v>
+        <v>4.511405317107963</v>
       </c>
       <c r="F116">
-        <v>14.9322873731879</v>
+        <v>5.117951266377975</v>
       </c>
     </row>
     <row r="117" spans="1:6">
@@ -2694,19 +2694,19 @@
         <v>115</v>
       </c>
       <c r="B117">
-        <v>39.19992011702917</v>
+        <v>3.205680127798929</v>
       </c>
       <c r="C117">
-        <v>17.21264612130189</v>
+        <v>3.290468605464118</v>
       </c>
       <c r="D117">
-        <v>8.862932519700449</v>
+        <v>2.657233354739432</v>
       </c>
       <c r="E117">
-        <v>15.01891835593479</v>
+        <v>4.534316002304739</v>
       </c>
       <c r="F117">
-        <v>14.9856079367378</v>
+        <v>5.138892529643427</v>
       </c>
     </row>
     <row r="118" spans="1:6">
@@ -2714,19 +2714,19 @@
         <v>116</v>
       </c>
       <c r="B118">
-        <v>39.2599724513275</v>
+        <v>3.218364138789267</v>
       </c>
       <c r="C118">
-        <v>17.26192839842816</v>
+        <v>3.302775513720595</v>
       </c>
       <c r="D118">
-        <v>8.887727654147524</v>
+        <v>2.661366687946701</v>
       </c>
       <c r="E118">
-        <v>15.05366210697505</v>
+        <v>4.557316298704131</v>
       </c>
       <c r="F118">
-        <v>15.0383064326638</v>
+        <v>5.159737880628579</v>
       </c>
     </row>
     <row r="119" spans="1:6">
@@ -2734,19 +2734,19 @@
         <v>117</v>
       </c>
       <c r="B119">
-        <v>39.31849953545191</v>
+        <v>3.231102806463532</v>
       </c>
       <c r="C119">
-        <v>17.31050005424992</v>
+        <v>3.315104149605753</v>
       </c>
       <c r="D119">
-        <v>8.912164064350655</v>
+        <v>2.665476016545557</v>
       </c>
       <c r="E119">
-        <v>15.08779053352099</v>
+        <v>4.580408656264981</v>
       </c>
       <c r="F119">
-        <v>15.09039055993975</v>
+        <v>5.180486971352567</v>
       </c>
     </row>
     <row r="120" spans="1:6">
@@ -2754,19 +2754,19 @@
         <v>118</v>
       </c>
       <c r="B120">
-        <v>39.37553853422798</v>
+        <v>3.243896829495011</v>
       </c>
       <c r="C120">
-        <v>17.35837223013876</v>
+        <v>3.327454658967191</v>
       </c>
       <c r="D120">
-        <v>8.936246851369273</v>
+        <v>2.669561472804729</v>
       </c>
       <c r="E120">
-        <v>15.12131483699582</v>
+        <v>4.603595489151412</v>
       </c>
       <c r="F120">
-        <v>15.14186795080505</v>
+        <v>5.201139459134639</v>
       </c>
     </row>
     <row r="121" spans="1:6">
@@ -2774,19 +2774,19 @@
         <v>119</v>
       </c>
       <c r="B121">
-        <v>39.43112557472221</v>
+        <v>3.256746923275258</v>
       </c>
       <c r="C121">
-        <v>17.40555586238881</v>
+        <v>3.339827193775679</v>
       </c>
       <c r="D121">
-        <v>8.959981058212005</v>
+        <v>2.673623188913684</v>
       </c>
       <c r="E121">
-        <v>15.15424603200467</v>
+        <v>4.626879174734585</v>
       </c>
       <c r="F121">
-        <v>15.19274612937101</v>
+        <v>5.221695012157357</v>
       </c>
     </row>
     <row r="122" spans="1:6">
@@ -2794,19 +2794,19 @@
         <v>120</v>
       </c>
       <c r="B122">
-        <v>39.48529617255461</v>
+        <v>3.269653819844834</v>
       </c>
       <c r="C122">
-        <v>17.45206174094832</v>
+        <v>3.352221912253499</v>
       </c>
       <c r="D122">
-        <v>8.983371659535615</v>
+        <v>2.677661296952777</v>
       </c>
       <c r="E122">
-        <v>15.18659482117491</v>
+        <v>4.650262041917784</v>
       </c>
       <c r="F122">
-        <v>15.24303254052482</v>
+        <v>5.242153306488382</v>
       </c>
     </row>
     <row r="123" spans="1:6">
@@ -2814,19 +2814,19 @@
         <v>121</v>
       </c>
       <c r="B123">
-        <v>39.53808495468879</v>
+        <v>3.282618268557715</v>
       </c>
       <c r="C123">
-        <v>17.49790049662936</v>
+        <v>3.36463897897198</v>
       </c>
       <c r="D123">
-        <v>9.006423570225785</v>
+        <v>2.681675928864443</v>
       </c>
       <c r="E123">
-        <v>15.21837177394334</v>
+        <v>4.673746369566389</v>
       </c>
       <c r="F123">
-        <v>15.29273455291188</v>
+        <v>5.262514026072161</v>
       </c>
     </row>
     <row r="124" spans="1:6">
@@ -2834,19 +2834,19 @@
         <v>122</v>
       </c>
       <c r="B124">
-        <v>39.5895257743154</v>
+        <v>3.295641036441485</v>
       </c>
       <c r="C124">
-        <v>17.54308260428202</v>
+        <v>3.377078564991503</v>
       </c>
       <c r="D124">
-        <v>9.029141643046055</v>
+        <v>2.685667216426274</v>
       </c>
       <c r="E124">
-        <v>15.24958733157784</v>
+        <v>4.697334374533977</v>
       </c>
       <c r="F124">
-        <v>15.3418594480882</v>
+        <v>5.282776867239224</v>
       </c>
     </row>
     <row r="125" spans="1:6">
@@ -2854,19 +2854,19 @@
         <v>123</v>
       </c>
       <c r="B125">
-        <v>39.63965184047266</v>
+        <v>3.308722908337592</v>
       </c>
       <c r="C125">
-        <v>17.58761838604485</v>
+        <v>3.389540847951704</v>
       </c>
       <c r="D125">
-        <v>9.051530671934335</v>
+        <v>2.689635291222961</v>
       </c>
       <c r="E125">
-        <v>15.28025183857513</v>
+        <v>4.721028209399899</v>
       </c>
       <c r="F125">
-        <v>15.39041442302915</v>
+        <v>5.302941535480235</v>
       </c>
     </row>
     <row r="126" spans="1:6">
@@ -2874,19 +2874,19 @@
         <v>124</v>
       </c>
       <c r="B126">
-        <v>39.68849544041272</v>
+        <v>3.321864687714832</v>
       </c>
       <c r="C126">
-        <v>17.63151800987688</v>
+        <v>3.402026012220764</v>
       </c>
       <c r="D126">
-        <v>9.073595389431787</v>
+        <v>2.693580284623461</v>
       </c>
       <c r="E126">
-        <v>15.31037531999626</v>
+        <v>4.744829950474641</v>
       </c>
       <c r="F126">
-        <v>15.43840659446985</v>
+        <v>5.323007746575469</v>
       </c>
     </row>
     <row r="127" spans="1:6">
@@ -2894,19 +2894,19 @@
         <v>125</v>
       </c>
       <c r="B127">
-        <v>39.73608835966591</v>
+        <v>3.335067196594763</v>
       </c>
       <c r="C127">
-        <v>17.6747914811608</v>
+        <v>3.414534248983101</v>
       </c>
       <c r="D127">
-        <v>9.095340465574239</v>
+        <v>2.697502327750029</v>
       </c>
       <c r="E127">
-        <v>15.3399676899192</v>
+        <v>4.768741594370145</v>
       </c>
       <c r="F127">
-        <v>15.48584299809863</v>
+        <v>5.342975229603902</v>
       </c>
     </row>
     <row r="128" spans="1:6">
@@ -2914,19 +2914,19 @@
         <v>126</v>
       </c>
       <c r="B128">
-        <v>39.78246146107745</v>
+        <v>3.348331276293245</v>
       </c>
       <c r="C128">
-        <v>17.71744866875517</v>
+        <v>3.427065756394442</v>
       </c>
       <c r="D128">
-        <v>9.116770514272226</v>
+        <v>2.701401551463565</v>
       </c>
       <c r="E128">
-        <v>15.36903870196511</v>
+        <v>4.792765045222582</v>
       </c>
       <c r="F128">
-        <v>15.53273058955922</v>
+        <v>5.362843723716112</v>
       </c>
     </row>
     <row r="129" spans="1:6">
@@ -2934,19 +2934,19 @@
         <v>127</v>
       </c>
       <c r="B129">
-        <v>39.82764505523312</v>
+        <v>3.361657787801456</v>
       </c>
       <c r="C129">
-        <v>17.75949928922393</v>
+        <v>3.439620739670581</v>
       </c>
       <c r="D129">
-        <v>9.137890089196299</v>
+        <v>2.705278086337858</v>
       </c>
       <c r="E129">
-        <v>15.39759797701068</v>
+        <v>4.816902114827642</v>
       </c>
       <c r="F129">
-        <v>15.5790762445696</v>
+        <v>5.382612980578418</v>
       </c>
     </row>
     <row r="130" spans="1:6">
@@ -2954,19 +2954,19 @@
         <v>128</v>
       </c>
       <c r="B130">
-        <v>39.87166878768498</v>
+        <v>3.375047611961003</v>
       </c>
       <c r="C130">
-        <v>17.80095291005431</v>
+        <v>3.452199411235081</v>
       </c>
       <c r="D130">
-        <v>9.158703684876697</v>
+        <v>2.709132062637624</v>
       </c>
       <c r="E130">
-        <v>15.42565493863586</v>
+        <v>4.841154510444368</v>
       </c>
       <c r="F130">
-        <v>15.62488675654919</v>
+        <v>5.40228276552356</v>
       </c>
     </row>
     <row r="131" spans="1:6">
@@ -2974,19 +2974,19 @@
         <v>129</v>
       </c>
       <c r="B131">
-        <v>39.91456146322319</v>
+        <v>3.388501650345053</v>
       </c>
       <c r="C131">
-        <v>17.84181895513265</v>
+        <v>3.464801990840505</v>
       </c>
       <c r="D131">
-        <v>9.179215738326397</v>
+        <v>2.712963610297308</v>
       </c>
       <c r="E131">
-        <v>15.45321886866367</v>
+        <v>4.865523818967805</v>
       </c>
       <c r="F131">
-        <v>15.67016884364677</v>
+        <v>5.421852854559656</v>
       </c>
     </row>
     <row r="132" spans="1:6">
@@ -2994,19 +2994,19 @@
         <v>130</v>
       </c>
       <c r="B132">
-        <v>39.95635120701238</v>
+        <v>3.40202082518605</v>
       </c>
       <c r="C132">
-        <v>17.88210670576312</v>
+        <v>3.477428705693108</v>
       </c>
       <c r="D132">
-        <v>9.199430629931138</v>
+        <v>2.716772858901532</v>
       </c>
       <c r="E132">
-        <v>15.48029889546803</v>
+        <v>4.890011518734735</v>
       </c>
       <c r="F132">
-        <v>15.71492914490844</v>
+        <v>5.441323038212724</v>
       </c>
     </row>
     <row r="133" spans="1:6">
@@ -3014,19 +3014,19 @@
         <v>131</v>
       </c>
       <c r="B133">
-        <v>39.99706574370936</v>
+        <v>3.415606080195668</v>
       </c>
       <c r="C133">
-        <v>17.92182530288179</v>
+        <v>3.490079790580577</v>
       </c>
       <c r="D133">
-        <v>9.21935268636984</v>
+        <v>2.72055993766674</v>
       </c>
       <c r="E133">
-        <v>15.5069039491902</v>
+        <v>4.91461895849439</v>
       </c>
       <c r="F133">
-        <v>15.75917422158212</v>
+        <v>5.460693120491758</v>
       </c>
     </row>
     <row r="134" spans="1:6">
@@ -3034,19 +3034,19 @@
         <v>132</v>
       </c>
       <c r="B134">
-        <v>40.03673196154761</v>
+        <v>3.429258380966218</v>
       </c>
       <c r="C134">
-        <v>17.96098375172944</v>
+        <v>3.502755487999874</v>
       </c>
       <c r="D134">
-        <v>9.238986173067648</v>
+        <v>2.724324975423453</v>
       </c>
       <c r="E134">
-        <v>15.53304286084824</v>
+        <v>4.939347341414799</v>
       </c>
       <c r="F134">
-        <v>15.80291055834166</v>
+        <v>5.479962916807426</v>
       </c>
     </row>
     <row r="135" spans="1:6">
@@ -3054,19 +3054,19 @@
         <v>133</v>
       </c>
       <c r="B135">
-        <v>40.07537619592796</v>
+        <v>3.442978715190783</v>
       </c>
       <c r="C135">
-        <v>17.9995909157773</v>
+        <v>3.515456048290593</v>
       </c>
       <c r="D135">
-        <v>9.258335300717919</v>
+        <v>2.728068100598919</v>
       </c>
       <c r="E135">
-        <v>15.55872429405728</v>
+        <v>4.964197739543297</v>
       </c>
       <c r="F135">
-        <v>15.84614456368823</v>
+        <v>5.499132258258326</v>
       </c>
     </row>
     <row r="136" spans="1:6">
@@ -3074,19 +3074,19 @@
         <v>134</v>
       </c>
       <c r="B136">
-        <v>40.11302421140523</v>
+        <v>3.456768093604152</v>
       </c>
       <c r="C136">
-        <v>18.0376555248534</v>
+        <v>3.528181729765133</v>
       </c>
       <c r="D136">
-        <v>9.277404224091383</v>
+        <v>2.731789441200307</v>
       </c>
       <c r="E136">
-        <v>15.58395676491257</v>
+        <v>4.989171071467275</v>
       </c>
       <c r="F136">
-        <v>15.88888257144185</v>
+        <v>5.518200989104129</v>
       </c>
     </row>
     <row r="137" spans="1:6">
@@ -3094,19 +3094,19 @@
         <v>135</v>
       </c>
       <c r="B137">
-        <v>40.14970119994847</v>
+        <v>3.470627549925695</v>
       </c>
       <c r="C137">
-        <v>18.0751861760341</v>
+        <v>3.540932798845172</v>
       </c>
       <c r="D137">
-        <v>9.296197042400106</v>
+        <v>2.735489124799016</v>
       </c>
       <c r="E137">
-        <v>15.60874862053201</v>
+        <v>5.014268097832061</v>
       </c>
       <c r="F137">
-        <v>15.93113084129117</v>
+        <v>5.537168966045523</v>
       </c>
     </row>
     <row r="138" spans="1:6">
@@ -3114,19 +3114,19 @@
         <v>136</v>
       </c>
       <c r="B138">
-        <v>40.18543168941684</v>
+        <v>3.484558141753272</v>
       </c>
       <c r="C138">
-        <v>18.11219133440093</v>
+        <v>3.553709530198571</v>
       </c>
       <c r="D138">
-        <v>9.314717806762935</v>
+        <v>2.739167278515803</v>
       </c>
       <c r="E138">
-        <v>15.63310808057387</v>
+        <v>5.039489414527679</v>
       </c>
       <c r="F138">
-        <v>15.97289555784747</v>
+        <v>5.556036061424671</v>
       </c>
     </row>
     <row r="139" spans="1:6">
@@ -3134,19 +3134,19 @@
         <v>137</v>
       </c>
       <c r="B139">
-        <v>40.22023970495346</v>
+        <v>3.498560950984945</v>
       </c>
       <c r="C139">
-        <v>18.14867933553005</v>
+        <v>3.566512206872802</v>
       </c>
       <c r="D139">
-        <v>9.3329705225668</v>
+        <v>2.742824029006565</v>
       </c>
       <c r="E139">
-        <v>15.65704322108879</v>
+        <v>5.064835444886092</v>
       </c>
       <c r="F139">
-        <v>16.01418283309167</v>
+        <v>5.574802160764975</v>
       </c>
     </row>
     <row r="140" spans="1:6">
@@ -3154,19 +3154,19 @@
         <v>138</v>
       </c>
       <c r="B140">
-        <v>40.25414869625191</v>
+        <v>3.512637084094874</v>
       </c>
       <c r="C140">
-        <v>18.18465838402465</v>
+        <v>3.579341120438788</v>
       </c>
       <c r="D140">
-        <v>9.350959121334995</v>
+        <v>2.746459502448741</v>
       </c>
       <c r="E140">
-        <v>15.68056197298204</v>
+        <v>5.09030645324734</v>
       </c>
       <c r="F140">
-        <v>16.0549987073144</v>
+        <v>5.593467162745994</v>
       </c>
     </row>
     <row r="141" spans="1:6">
@@ -3174,19 +3174,19 @@
         <v>139</v>
       </c>
       <c r="B141">
-        <v>40.28718152137057</v>
+        <v>3.526787673120267</v>
       </c>
       <c r="C141">
-        <v>18.2201365567659</v>
+        <v>3.592196571128815</v>
       </c>
       <c r="D141">
-        <v>9.368687489959676</v>
+        <v>2.750073824528374</v>
       </c>
       <c r="E141">
-        <v>15.70367213714946</v>
+        <v>5.115902502468272</v>
       </c>
       <c r="F141">
-        <v>16.09534914787342</v>
+        <v>5.612030981339768</v>
       </c>
     </row>
     <row r="142" spans="1:6">
@@ -3194,19 +3194,19 @@
         <v>140</v>
       </c>
       <c r="B142">
-        <v>40.31936052012855</v>
+        <v>3.541013875636935</v>
       </c>
       <c r="C142">
-        <v>18.25512181119517</v>
+        <v>3.605078867978592</v>
       </c>
       <c r="D142">
-        <v>9.386159462476824</v>
+        <v>2.7536671204278</v>
       </c>
       <c r="E142">
-        <v>15.72638137510606</v>
+        <v>5.141623470125693</v>
       </c>
       <c r="F142">
-        <v>16.1352400513222</v>
+        <v>5.630493543537652</v>
       </c>
     </row>
     <row r="143" spans="1:6">
@@ -3214,19 +3214,19 @@
         <v>141</v>
       </c>
       <c r="B143">
-        <v>40.35070752051385</v>
+        <v>3.555316875715224</v>
       </c>
       <c r="C143">
-        <v>18.28962198046716</v>
+        <v>3.617988328971334</v>
       </c>
       <c r="D143">
-        <v>9.403378820460588</v>
+        <v>2.757239514814009</v>
       </c>
       <c r="E143">
-        <v>15.74869720686561</v>
+        <v>5.167469075129373</v>
       </c>
       <c r="F143">
-        <v>16.17467724371469</v>
+        <v>5.648854790019051</v>
       </c>
     </row>
     <row r="144" spans="1:6">
@@ -3234,19 +3234,19 @@
         <v>142</v>
       </c>
       <c r="B144">
-        <v>40.38124381371939</v>
+        <v>3.569697884362736</v>
       </c>
       <c r="C144">
-        <v>18.32364477731863</v>
+        <v>3.630925281183727</v>
       </c>
       <c r="D144">
-        <v>9.420349305461601</v>
+        <v>2.760791131827586</v>
       </c>
       <c r="E144">
-        <v>15.77062702316258</v>
+        <v>5.193438809972708</v>
       </c>
       <c r="F144">
-        <v>16.21366648125722</v>
+        <v>5.667114676168158</v>
       </c>
     </row>
     <row r="145" spans="1:6">
@@ -3254,19 +3254,19 @@
         <v>143</v>
       </c>
       <c r="B145">
-        <v>40.41099018573787</v>
+        <v>3.584158139866426</v>
       </c>
       <c r="C145">
-        <v>18.35719779598864</v>
+        <v>3.643890060933563</v>
       </c>
       <c r="D145">
-        <v>9.437074616309545</v>
+        <v>2.764322095072632</v>
       </c>
       <c r="E145">
-        <v>15.79217808590166</v>
+        <v>5.219531971908245</v>
       </c>
       <c r="F145">
-        <v>16.25221345052968</v>
+        <v>5.685273170086925</v>
       </c>
     </row>
     <row r="146" spans="1:6">
@@ -3274,19 +3274,19 @@
         <v>144</v>
       </c>
       <c r="B146">
-        <v>40.43996694503177</v>
+        <v>3.598698908802602</v>
       </c>
       <c r="C146">
-        <v>18.39028848603794</v>
+        <v>3.656883013928916</v>
       </c>
       <c r="D146">
-        <v>9.453558374905757</v>
+        <v>2.767832527606179</v>
       </c>
       <c r="E146">
-        <v>15.81335753007987</v>
+        <v>5.245747699079812</v>
       </c>
       <c r="F146">
-        <v>16.29032377020045</v>
+        <v>5.70333025390734</v>
       </c>
     </row>
     <row r="147" spans="1:6">
@@ -3294,19 +3294,19 @@
         <v>145</v>
       </c>
       <c r="B147">
-        <v>40.46819390732907</v>
+        <v>3.613321486070309</v>
       </c>
       <c r="C147">
-        <v>18.4229242094707</v>
+        <v>3.669904495418835</v>
       </c>
       <c r="D147">
-        <v>9.469804165809354</v>
+        <v>2.771322551933214</v>
       </c>
       <c r="E147">
-        <v>15.83417236101247</v>
+        <v>5.272084895086534</v>
       </c>
       <c r="F147">
-        <v>16.32800299088712</v>
+        <v>5.721285923706006</v>
       </c>
     </row>
     <row r="148" spans="1:6">
@@ -3314,19 +3314,19 @@
         <v>146</v>
       </c>
       <c r="B148">
-        <v>40.49569041761902</v>
+        <v>3.628027195884964</v>
       </c>
       <c r="C148">
-        <v>18.45511221114105</v>
+        <v>3.682954870345912</v>
       </c>
       <c r="D148">
-        <v>9.485815524534244</v>
+        <v>2.774792289987508</v>
       </c>
       <c r="E148">
-        <v>15.85462946131466</v>
+        <v>5.298542259709566</v>
       </c>
       <c r="F148">
-        <v>16.36525659604079</v>
+        <v>5.739140187870947</v>
       </c>
     </row>
     <row r="149" spans="1:6">
@@ -3334,19 +3334,19 @@
         <v>147</v>
       </c>
       <c r="B149">
-        <v>40.52247536505969</v>
+        <v>3.642817392244809</v>
       </c>
       <c r="C149">
-        <v>18.4868596199694</v>
+        <v>3.696034513500774</v>
       </c>
       <c r="D149">
-        <v>9.501595938039861</v>
+        <v>2.778241863128484</v>
       </c>
       <c r="E149">
-        <v>15.87473559061774</v>
+        <v>5.32511833741884</v>
       </c>
       <c r="F149">
-        <v>16.40209000261664</v>
+        <v>5.756893068967935</v>
       </c>
     </row>
     <row r="150" spans="1:6">
@@ -3354,19 +3354,19 @@
         <v>148</v>
       </c>
       <c r="B150">
-        <v>40.54856718795197</v>
+        <v>3.657693459347854</v>
       </c>
       <c r="C150">
-        <v>18.51817345441526</v>
+        <v>3.709143809678281</v>
       </c>
       <c r="D150">
-        <v>9.517148852008436</v>
+        <v>2.78167139213984</v>
       </c>
       <c r="E150">
-        <v>15.89449738533237</v>
+        <v>5.35181144245059</v>
       </c>
       <c r="F150">
-        <v>16.43850856014</v>
+        <v>5.77454460254972</v>
       </c>
     </row>
     <row r="151" spans="1:6">
@@ -3374,19 +3374,19 @@
         <v>149</v>
       </c>
       <c r="B151">
-        <v>40.57398386677364</v>
+        <v>3.672656812589745</v>
       </c>
       <c r="C151">
-        <v>18.54906061727451</v>
+        <v>3.722283153835461</v>
       </c>
       <c r="D151">
-        <v>9.532477667083267</v>
+        <v>2.785080997212277</v>
       </c>
       <c r="E151">
-        <v>15.91392136792147</v>
+        <v>5.378619681691593</v>
       </c>
       <c r="F151">
-        <v>16.47451755460963</v>
+        <v>5.792094836343063</v>
       </c>
     </row>
     <row r="152" spans="1:6">
@@ -3394,19 +3394,19 @@
         <v>150</v>
       </c>
       <c r="B152">
-        <v>40.5987429662165</v>
+        <v>3.687708898689718</v>
       </c>
       <c r="C152">
-        <v>18.57952786925279</v>
+        <v>3.735452951251168</v>
       </c>
       <c r="D152">
-        <v>9.547585725582401</v>
+        <v>2.788470797945948</v>
       </c>
       <c r="E152">
-        <v>15.93301394302241</v>
+        <v>5.405541015764588</v>
       </c>
       <c r="F152">
-        <v>16.51012220708536</v>
+        <v>5.809543831688972</v>
       </c>
     </row>
     <row r="153" spans="1:6">
@@ -3414,19 +3414,19 @@
         <v>151</v>
       </c>
       <c r="B153">
-        <v>40.62286161328956</v>
+        <v>3.70285119667966</v>
       </c>
       <c r="C153">
-        <v>18.60958191837323</v>
+        <v>3.74865361768749</v>
       </c>
       <c r="D153">
-        <v>9.562476329574102</v>
+        <v>2.791840913338136</v>
       </c>
       <c r="E153">
-        <v>15.95178139958679</v>
+        <v>5.432573190877757</v>
       </c>
       <c r="F153">
-        <v>16.54532767457696</v>
+        <v>5.826891662236486</v>
       </c>
     </row>
     <row r="154" spans="1:6">
@@ -3434,19 +3434,19 @@
         <v>152</v>
       </c>
       <c r="B154">
-        <v>40.64635652121697</v>
+        <v>3.718085218400981</v>
       </c>
       <c r="C154">
-        <v>18.63922934631793</v>
+        <v>3.761885579552921</v>
       </c>
       <c r="D154">
-        <v>9.577152735752518</v>
+        <v>2.795191461779293</v>
       </c>
       <c r="E154">
-        <v>15.97022989042786</v>
+        <v>5.459713749052963</v>
       </c>
       <c r="F154">
-        <v>16.58013905083366</v>
+        <v>5.844138413566982</v>
       </c>
     </row>
     <row r="155" spans="1:6">
@@ -3454,19 +3454,19 @@
         <v>153</v>
       </c>
       <c r="B155">
-        <v>40.66924399826444</v>
+        <v>3.733412509020436</v>
       </c>
       <c r="C155">
-        <v>18.66847663119168</v>
+        <v>3.775149274067263</v>
       </c>
       <c r="D155">
-        <v>9.59161815597902</v>
+        <v>2.798522561046508</v>
       </c>
       <c r="E155">
-        <v>15.98836548853791</v>
+        <v>5.486960099449811</v>
       </c>
       <c r="F155">
-        <v>16.61456136515877</v>
+        <v>5.861284184071872</v>
       </c>
     </row>
     <row r="156" spans="1:6">
@@ -3474,19 +3474,19 @@
         <v>154</v>
       </c>
       <c r="B156">
-        <v>40.69153995119579</v>
+        <v>3.748834648079483</v>
       </c>
       <c r="C156">
-        <v>18.69733014919733</v>
+        <v>3.788445149428309</v>
       </c>
       <c r="D156">
-        <v>9.605875755892034</v>
+        <v>2.80183432829716</v>
       </c>
       <c r="E156">
-        <v>16.00619414727683</v>
+        <v>5.514309463187964</v>
       </c>
       <c r="F156">
-        <v>16.64859958611771</v>
+        <v>5.878329083605613</v>
       </c>
     </row>
     <row r="157" spans="1:6">
@@ -3494,19 +3494,19 @@
         <v>155</v>
       </c>
       <c r="B157">
-        <v>40.71325989862707</v>
+        <v>3.764353249420948</v>
       </c>
       <c r="C157">
-        <v>18.72579615782472</v>
+        <v>3.801773664979969</v>
       </c>
       <c r="D157">
-        <v>9.619928657225058</v>
+        <v>2.805126880066771</v>
       </c>
       <c r="E157">
-        <v>16.02372171337978</v>
+        <v>5.541758868404854</v>
       </c>
       <c r="F157">
-        <v>16.68225862129834</v>
+        <v>5.895273233513687</v>
       </c>
     </row>
     <row r="158" spans="1:6">
@@ -3514,19 +3514,19 @@
         <v>156</v>
       </c>
       <c r="B158">
-        <v>40.73441897817531</v>
+        <v>3.77996996219542</v>
       </c>
       <c r="C158">
-        <v>18.75388081560031</v>
+        <v>3.815135291382453</v>
       </c>
       <c r="D158">
-        <v>9.633779940963883</v>
+        <v>2.808400332261156</v>
       </c>
       <c r="E158">
-        <v>16.04095392905534</v>
+        <v>5.569305226916832</v>
       </c>
       <c r="F158">
-        <v>16.71554331705974</v>
+        <v>5.912116767513491</v>
       </c>
     </row>
     <row r="159" spans="1:6">
@@ -3534,19 +3534,19 @@
         <v>157</v>
       </c>
       <c r="B159">
-        <v>40.75503195575663</v>
+        <v>3.795686471715781</v>
       </c>
       <c r="C159">
-        <v>18.78159020485972</v>
+        <v>3.828530510783815</v>
       </c>
       <c r="D159">
-        <v>9.647432643923974</v>
+        <v>2.811654800156462</v>
       </c>
       <c r="E159">
-        <v>16.05789643408364</v>
+        <v>5.596945296294048</v>
       </c>
       <c r="F159">
-        <v>16.74845845963538</v>
+        <v>5.928859830621847</v>
       </c>
     </row>
     <row r="160" spans="1:6">
@@ -3554,19 +3554,19 @@
         <v>158</v>
       </c>
       <c r="B160">
-        <v>40.77511323382549</v>
+        <v>3.811504500270318</v>
       </c>
       <c r="C160">
-        <v>18.80893029945906</v>
+        <v>3.841959816993183</v>
       </c>
       <c r="D160">
-        <v>9.66088976060994</v>
+        <v>2.814890398392351</v>
       </c>
       <c r="E160">
-        <v>16.07455471056538</v>
+        <v>5.624675661451357</v>
       </c>
       <c r="F160">
-        <v>16.78100877436284</v>
+        <v>5.945502578696631</v>
       </c>
     </row>
     <row r="161" spans="1:6">
@@ -3574,19 +3574,19 @@
         <v>159</v>
       </c>
       <c r="B161">
-        <v>40.79467685657585</v>
+        <v>3.827425806517361</v>
       </c>
       <c r="C161">
-        <v>18.83590697776827</v>
+        <v>3.855423715655569</v>
       </c>
       <c r="D161">
-        <v>9.674154243744036</v>
+        <v>2.818107240970431</v>
       </c>
       <c r="E161">
-        <v>16.09093419545564</v>
+        <v>5.652492810034802</v>
       </c>
       <c r="F161">
-        <v>16.81319892785683</v>
+        <v>5.962045176631118</v>
       </c>
     </row>
     <row r="162" spans="1:6">
@@ -3594,19 +3594,19 @@
         <v>160</v>
       </c>
       <c r="B162">
-        <v>40.81373652498536</v>
+        <v>3.843452187143104</v>
       </c>
       <c r="C162">
-        <v>18.86252602420474</v>
+        <v>3.868922724428228</v>
       </c>
       <c r="D162">
-        <v>9.687228999665088</v>
+        <v>2.821305441250789</v>
       </c>
       <c r="E162">
-        <v>16.1070402291823</v>
+        <v>5.68039311221112</v>
       </c>
       <c r="F162">
-        <v>16.84503352976194</v>
+        <v>5.978487802956845</v>
       </c>
     </row>
     <row r="163" spans="1:6">
@@ -3614,19 +3614,19 @@
         <v>161</v>
       </c>
       <c r="B163">
-        <v>40.8323055959864</v>
+        <v>3.859585477912699</v>
       </c>
       <c r="C163">
-        <v>18.88879311046162</v>
+        <v>3.882457373158444</v>
       </c>
       <c r="D163">
-        <v>9.700116894818629</v>
+        <v>2.824485111948007</v>
       </c>
       <c r="E163">
-        <v>16.12287804407881</v>
+        <v>5.708372794867159</v>
       </c>
       <c r="F163">
-        <v>16.87651713130943</v>
+        <v>5.994830645855424</v>
       </c>
     </row>
     <row r="164" spans="1:6">
@@ -3634,19 +3634,19 @@
         <v>162</v>
       </c>
       <c r="B164">
-        <v>40.85039709466791</v>
+        <v>3.875827553588434</v>
       </c>
       <c r="C164">
-        <v>18.91471383861102</v>
+        <v>3.896028204062768</v>
       </c>
       <c r="D164">
-        <v>9.712820760367224</v>
+        <v>2.827646365130614</v>
       </c>
       <c r="E164">
-        <v>16.1384527779055</v>
+        <v>5.736428008843592</v>
       </c>
       <c r="F164">
-        <v>16.90765422666692</v>
+        <v>6.011073903991616</v>
       </c>
     </row>
     <row r="165" spans="1:6">
@@ -3654,19 +3654,19 @@
         <v>163</v>
       </c>
       <c r="B165">
-        <v>40.86802372414044</v>
+        <v>3.892180328198144</v>
       </c>
       <c r="C165">
-        <v>18.94029371644992</v>
+        <v>3.909635771907636</v>
       </c>
       <c r="D165">
-        <v>9.725343384477251</v>
+        <v>2.830789312216403</v>
       </c>
       <c r="E165">
-        <v>16.1537694758126</v>
+        <v>5.764554823273309</v>
       </c>
       <c r="F165">
-        <v>16.93844925256895</v>
+        <v>6.027217781858341</v>
       </c>
     </row>
     <row r="166" spans="1:6">
@@ -3674,19 +3674,19 @@
         <v>164</v>
       </c>
       <c r="B166">
-        <v>40.88519786319534</v>
+        <v>3.908645756362295</v>
       </c>
       <c r="C166">
-        <v>18.96553816072075</v>
+        <v>3.9232806441912</v>
       </c>
       <c r="D166">
-        <v>9.737687515733166</v>
+        <v>2.833914063973072</v>
       </c>
       <c r="E166">
-        <v>16.16883305167347</v>
+        <v>5.792749200838869</v>
       </c>
       <c r="F166">
-        <v>16.96890658900061</v>
+        <v>6.04326249857893</v>
       </c>
     </row>
     <row r="167" spans="1:6">
@@ -3694,19 +3694,19 @@
         <v>165</v>
       </c>
       <c r="B167">
-        <v>40.9019315861007</v>
+        <v>3.925225833930783</v>
       </c>
       <c r="C167">
-        <v>18.99045250069054</v>
+        <v>3.936963401326402</v>
       </c>
       <c r="D167">
-        <v>9.74985586363545</v>
+        <v>2.837020730514151</v>
       </c>
       <c r="E167">
-        <v>16.18364832472556</v>
+        <v>5.821007051013369</v>
       </c>
       <c r="F167">
-        <v>16.999030562878</v>
+        <v>6.059208281247281</v>
       </c>
     </row>
     <row r="168" spans="1:6">
@@ -3714,19 +3714,19 @@
         <v>166</v>
       </c>
       <c r="B168">
-        <v>40.9182366599798</v>
+        <v>3.941922598212851</v>
       </c>
       <c r="C168">
-        <v>19.01504197638788</v>
+        <v>3.950684636825219</v>
       </c>
       <c r="D168">
-        <v>9.761851096122339</v>
+        <v>2.840109421299581</v>
       </c>
       <c r="E168">
-        <v>16.19822008630246</v>
+        <v>5.849324233599072</v>
       </c>
       <c r="F168">
-        <v>17.02882544545275</v>
+        <v>6.075055366261806</v>
       </c>
     </row>
     <row r="169" spans="1:6">
@@ -3734,19 +3734,19 @@
         <v>167</v>
       </c>
       <c r="B169">
-        <v>40.93412455493069</v>
+        <v>3.958738128821549</v>
       </c>
       <c r="C169">
-        <v>19.03931173037244</v>
+        <v>3.964444957483805</v>
       </c>
       <c r="D169">
-        <v>9.773675844132907</v>
+        <v>2.843180245133246</v>
       </c>
       <c r="E169">
-        <v>16.212553008614</v>
+        <v>5.877696543575006</v>
       </c>
       <c r="F169">
-        <v>17.05829545389774</v>
+        <v>6.090803997248071</v>
       </c>
     </row>
     <row r="170" spans="1:6">
@@ -3754,19 +3754,19 @@
         <v>168</v>
       </c>
       <c r="B170">
-        <v>40.94960645339491</v>
+        <v>3.975674548179865</v>
       </c>
       <c r="C170">
-        <v>19.06326684190271</v>
+        <v>3.978244983568572</v>
       </c>
       <c r="D170">
-        <v>9.785332703075369</v>
+        <v>2.846233310162356</v>
       </c>
       <c r="E170">
-        <v>16.22665167764629</v>
+        <v>5.906119746270059</v>
       </c>
       <c r="F170">
-        <v>17.08744475127899</v>
+        <v>6.106454427566587</v>
       </c>
     </row>
     <row r="171" spans="1:6">
@@ -3774,19 +3774,19 @@
         <v>169</v>
       </c>
       <c r="B171">
-        <v>40.96469325080792</v>
+        <v>3.992734020860803</v>
       </c>
       <c r="C171">
-        <v>19.08691229958525</v>
+        <v>3.992085349003031</v>
       </c>
       <c r="D171">
-        <v>9.796824229658551</v>
+        <v>2.849268723877333</v>
       </c>
       <c r="E171">
-        <v>16.24052059490308</v>
+        <v>5.934589584119573</v>
       </c>
       <c r="F171">
-        <v>17.11627744567237</v>
+        <v>6.1220069195413</v>
       </c>
     </row>
     <row r="172" spans="1:6">
@@ -3794,19 +3794,19 @@
         <v>170</v>
       </c>
       <c r="B172">
-        <v>40.97939556946906</v>
+        <v>4.009918756922689</v>
       </c>
       <c r="C172">
-        <v>19.1102530108761</v>
+        <v>4.005966701555264</v>
       </c>
       <c r="D172">
-        <v>9.808152943763954</v>
+        <v>2.852286593109655</v>
       </c>
       <c r="E172">
-        <v>16.25416416807198</v>
+        <v>5.963101778004668</v>
       </c>
       <c r="F172">
-        <v>17.14479759611922</v>
+        <v>6.137461743259397</v>
       </c>
     </row>
     <row r="173" spans="1:6">
@@ -3814,19 +3814,19 @@
         <v>171</v>
       </c>
       <c r="B173">
-        <v>40.9937237592418</v>
+        <v>4.027231010534212</v>
       </c>
       <c r="C173">
-        <v>19.13329380346218</v>
+        <v>4.019889703025875</v>
       </c>
       <c r="D173">
-        <v>9.81932132892763</v>
+        <v>2.855287024033564</v>
       </c>
       <c r="E173">
-        <v>16.26758667173978</v>
+        <v>5.991652042358067</v>
       </c>
       <c r="F173">
-        <v>17.17300920856042</v>
+        <v>6.152819176598478</v>
       </c>
     </row>
     <row r="174" spans="1:6">
@@ -3834,19 +3834,19 @@
         <v>172</v>
       </c>
       <c r="B174">
-        <v>41.00768790557057</v>
+        <v>4.044673080130619</v>
       </c>
       <c r="C174">
-        <v>19.15603941763327</v>
+        <v>4.033855029436244</v>
       </c>
       <c r="D174">
-        <v>9.830331830157503</v>
+        <v>2.858270122163835</v>
       </c>
       <c r="E174">
-        <v>16.2807923849317</v>
+        <v>6.020236089789634</v>
       </c>
       <c r="F174">
-        <v>17.20091623774568</v>
+        <v>6.168079505028175</v>
       </c>
     </row>
     <row r="175" spans="1:6">
@@ -3854,19 +3854,19 @@
         <v>173</v>
       </c>
       <c r="B175">
-        <v>41.02129783851441</v>
+        <v>4.062247307944011</v>
       </c>
       <c r="C175">
-        <v>19.17849451767698</v>
+        <v>4.047863371216927</v>
       </c>
       <c r="D175">
-        <v>9.841186858517419</v>
+        <v>2.861235992357662</v>
       </c>
       <c r="E175">
-        <v>16.29378547216391</v>
+        <v>6.048849653020836</v>
       </c>
       <c r="F175">
-        <v>17.22852258760381</v>
+        <v>6.18324302167376</v>
       </c>
     </row>
     <row r="176" spans="1:6">
@@ -3874,19 +3874,19 @@
         <v>174</v>
       </c>
       <c r="B176">
-        <v>41.03456313176389</v>
+        <v>4.07995608484392</v>
       </c>
       <c r="C176">
-        <v>19.20066370080721</v>
+        <v>4.061915433395978</v>
       </c>
       <c r="D176">
-        <v>9.851888791410367</v>
+        <v>2.864184738813339</v>
       </c>
       <c r="E176">
-        <v>16.30657001953582</v>
+        <v>6.077488480198584</v>
       </c>
       <c r="F176">
-        <v>17.25583210862583</v>
+        <v>6.198310026734593</v>
       </c>
     </row>
     <row r="177" spans="1:6">
@@ -3894,19 +3894,19 @@
         <v>175</v>
       </c>
       <c r="B177">
-        <v>41.04749311744251</v>
+        <v>4.097801847296943</v>
       </c>
       <c r="C177">
-        <v>19.22255148415116</v>
+        <v>4.076011935787029</v>
       </c>
       <c r="D177">
-        <v>9.862439970629771</v>
+        <v>2.867116465071742</v>
       </c>
       <c r="E177">
-        <v>16.31915003629267</v>
+        <v>6.106148333808365</v>
       </c>
       <c r="F177">
-        <v>17.28284860626285</v>
+        <v>6.213280827479228</v>
       </c>
     </row>
     <row r="178" spans="1:6">
@@ -3914,19 +3914,19 @@
         <v>176</v>
       </c>
       <c r="B178">
-        <v>41.06009688513264</v>
+        <v>4.115787075916664</v>
       </c>
       <c r="C178">
-        <v>19.24416231107247</v>
+        <v>4.090153613176466</v>
       </c>
       <c r="D178">
-        <v>9.872842703842252</v>
+        <v>2.870031274016302</v>
       </c>
       <c r="E178">
-        <v>16.33152945638829</v>
+        <v>6.134825033318609</v>
       </c>
       <c r="F178">
-        <v>17.30957583531219</v>
+        <v>6.228155738477949</v>
       </c>
     </row>
     <row r="179" spans="1:6">
@@ -3934,19 +3934,19 @@
         <v>177</v>
       </c>
       <c r="B179">
-        <v>41.0723832888423</v>
+        <v>4.13391429819113</v>
       </c>
       <c r="C179">
-        <v>19.26550055248761</v>
+        <v>4.104341215510861</v>
       </c>
       <c r="D179">
-        <v>9.883099265056401</v>
+        <v>2.872929267873607</v>
       </c>
       <c r="E179">
-        <v>16.34371209857536</v>
+        <v>6.163514433294727</v>
       </c>
       <c r="F179">
-        <v>17.33601750216019</v>
+        <v>6.242935080004539</v>
       </c>
     </row>
     <row r="180" spans="1:6">
@@ -3954,19 +3954,19 @@
         <v>178</v>
       </c>
       <c r="B180">
-        <v>41.08436095634399</v>
+        <v>4.152186091684614</v>
       </c>
       <c r="C180">
-        <v>19.28657048082788</v>
+        <v>4.118575508081358</v>
       </c>
       <c r="D180">
-        <v>9.893211891771722</v>
+        <v>2.875810548214987</v>
       </c>
       <c r="E180">
-        <v>16.35570175761015</v>
+        <v>6.192212414696172</v>
       </c>
       <c r="F180">
-        <v>17.36217726536626</v>
+        <v>6.257619178889742</v>
       </c>
     </row>
     <row r="181" spans="1:6">
@@ -3974,19 +3974,19 @@
         <v>179</v>
       </c>
       <c r="B181">
-        <v>41.09603828353803</v>
+        <v>4.170605080741394</v>
       </c>
       <c r="C181">
-        <v>19.30737632874439</v>
+        <v>4.132857271712292</v>
       </c>
       <c r="D181">
-        <v>9.903182791055857</v>
+        <v>2.878675215956222</v>
       </c>
       <c r="E181">
-        <v>16.36750214489746</v>
+        <v>6.220914945634035</v>
       </c>
       <c r="F181">
-        <v>17.38805873253374</v>
+        <v>6.272208367993209</v>
       </c>
     </row>
     <row r="182" spans="1:6">
@@ -3994,19 +3994,19 @@
         <v>180</v>
       </c>
       <c r="B182">
-        <v>41.10742345672244</v>
+        <v>4.189173931156997</v>
       </c>
       <c r="C182">
-        <v>19.32792225198247</v>
+        <v>4.147187302936157</v>
       </c>
       <c r="D182">
-        <v>9.913014138617738</v>
+        <v>2.881523371360163</v>
       </c>
       <c r="E182">
-        <v>16.37911689735844</v>
+        <v>6.249618046071807</v>
       </c>
       <c r="F182">
-        <v>17.41366546856141</v>
+        <v>6.28670298681586</v>
       </c>
     </row>
     <row r="183" spans="1:6">
@@ -4014,19 +4014,19 @@
         <v>181</v>
       </c>
       <c r="B183">
-        <v>41.11852444909452</v>
+        <v>4.207895361412363</v>
       </c>
       <c r="C183">
-        <v>19.34821233547412</v>
+        <v>4.161566414188398</v>
       </c>
       <c r="D183">
-        <v>9.92270807716474</v>
+        <v>2.884355114036547</v>
       </c>
       <c r="E183">
-        <v>16.39054958269919</v>
+        <v>6.278317771941742</v>
       </c>
       <c r="F183">
-        <v>17.43900099100096</v>
+        <v>6.301103379577095</v>
       </c>
     </row>
     <row r="184" spans="1:6">
@@ -4034,19 +4034,19 @@
         <v>182</v>
       </c>
       <c r="B184">
-        <v>41.12934902409896</v>
+        <v>4.226772138439438</v>
       </c>
       <c r="C184">
-        <v>19.36825059674191</v>
+        <v>4.175995433971195</v>
       </c>
       <c r="D184">
-        <v>9.932266717871613</v>
+        <v>2.88717054294458</v>
       </c>
       <c r="E184">
-        <v>16.40180370086125</v>
+        <v>6.307010288219733</v>
       </c>
       <c r="F184">
-        <v>17.46406877145303</v>
+        <v>6.31540989616576</v>
       </c>
     </row>
     <row r="185" spans="1:6">
@@ -4054,19 +4054,19 @@
         <v>183</v>
       </c>
       <c r="B185">
-        <v>41.13990472854743</v>
+        <v>4.245807076320419</v>
       </c>
       <c r="C185">
-        <v>19.38804098263463</v>
+        <v>4.19047520703715</v>
       </c>
       <c r="D185">
-        <v>9.941692140834297</v>
+        <v>2.889969756393499</v>
       </c>
       <c r="E185">
-        <v>16.41288266417102</v>
+        <v>6.335691825293694</v>
       </c>
       <c r="F185">
-        <v>17.48887223634709</v>
+        <v>6.329622891648492</v>
       </c>
     </row>
     <row r="186" spans="1:6">
@@ -4074,19 +4074,19 @@
         <v>184</v>
       </c>
       <c r="B186">
-        <v>41.15019893448419</v>
+        <v>4.265003026242055</v>
       </c>
       <c r="C186">
-        <v>19.40758736047086</v>
+        <v>4.205006594557651</v>
       </c>
       <c r="D186">
-        <v>9.950986390305982</v>
+        <v>2.892752852044754</v>
       </c>
       <c r="E186">
-        <v>16.42378982805486</v>
+        <v>6.364358657331979</v>
       </c>
       <c r="F186">
-        <v>17.51341476457489</v>
+        <v>6.343742726589598</v>
       </c>
     </row>
     <row r="187" spans="1:6">
@@ -4094,19 +4094,19 @@
         <v>185</v>
       </c>
       <c r="B187">
-        <v>41.16023881711186</v>
+        <v>4.284362899337026</v>
       </c>
       <c r="C187">
-        <v>19.4268935570668</v>
+        <v>4.219590474296334</v>
       </c>
       <c r="D187">
-        <v>9.960151484647408</v>
+        <v>2.895519926915179</v>
       </c>
       <c r="E187">
-        <v>16.43452850056331</v>
+        <v>6.393007181340663</v>
       </c>
       <c r="F187">
-        <v>17.53769969309181</v>
+        <v>6.357769766034624</v>
       </c>
     </row>
     <row r="188" spans="1:6">
@@ -4114,19 +4114,19 @@
         <v>186</v>
       </c>
       <c r="B188">
-        <v>41.17003135100047</v>
+        <v>4.303889650617807</v>
       </c>
       <c r="C188">
-        <v>19.44596332593876</v>
+        <v>4.234227740773778</v>
       </c>
       <c r="D188">
-        <v>9.969189413013085</v>
+        <v>2.898271077375888</v>
       </c>
       <c r="E188">
-        <v>16.44510191577278</v>
+        <v>6.421633869864833</v>
       </c>
       <c r="F188">
-        <v>17.5617303155984</v>
+        <v>6.37170437939225</v>
       </c>
     </row>
     <row r="189" spans="1:6">
@@ -4134,19 +4134,19 @@
         <v>187</v>
       </c>
       <c r="B189">
-        <v>41.17958331702295</v>
+        <v>4.323586279191926</v>
       </c>
       <c r="C189">
-        <v>19.46480035810263</v>
+        <v>4.248919305431335</v>
       </c>
       <c r="D189">
-        <v>9.978102133743556</v>
+        <v>2.901006399153741</v>
       </c>
       <c r="E189">
-        <v>16.45551324580526</v>
+        <v>6.450235245768823</v>
       </c>
       <c r="F189">
-        <v>17.5855098820062</v>
+        <v>6.385546940537846</v>
       </c>
     </row>
     <row r="190" spans="1:6">
@@ -4154,19 +4154,19 @@
         <v>188</v>
       </c>
       <c r="B190">
-        <v>41.18890134501359</v>
+        <v>4.343455820893282</v>
       </c>
       <c r="C190">
-        <v>19.48340828319824</v>
+        <v>4.263666096782802</v>
       </c>
       <c r="D190">
-        <v>9.986891576052466</v>
+        <v>2.903725987333501</v>
       </c>
       <c r="E190">
-        <v>16.46576560218378</v>
+        <v>6.478807961243323</v>
       </c>
       <c r="F190">
-        <v>17.60904159961049</v>
+        <v>6.399297827902746</v>
       </c>
     </row>
     <row r="191" spans="1:6">
@@ -4174,19 +4174,19 @@
         <v>189</v>
       </c>
       <c r="B191">
-        <v>41.19799188215922</v>
+        <v>4.363501371746559</v>
       </c>
       <c r="C191">
-        <v>19.50179066037574</v>
+        <v>4.278469060565829</v>
       </c>
       <c r="D191">
-        <v>9.99555964045871</v>
+        <v>2.906429936368801</v>
       </c>
       <c r="E191">
-        <v>16.47586202587073</v>
+        <v>6.507348750777606</v>
       </c>
       <c r="F191">
-        <v>17.63232863133602</v>
+        <v>6.412957424167938</v>
       </c>
     </row>
     <row r="192" spans="1:6">
@@ -4194,19 +4194,19 @@
         <v>190</v>
       </c>
       <c r="B192">
-        <v>41.20686118554462</v>
+        <v>4.383726068856747</v>
       </c>
       <c r="C192">
-        <v>19.51995099204041</v>
+        <v>4.29332915988984</v>
       </c>
       <c r="D192">
-        <v>10.00410819294065</v>
+        <v>2.909118340068388</v>
       </c>
       <c r="E192">
-        <v>16.48580547730315</v>
+        <v>6.535854404692356</v>
       </c>
       <c r="F192">
-        <v>17.65537409901086</v>
+        <v>6.42652611503503</v>
       </c>
     </row>
     <row r="193" spans="1:6">
@@ -4214,19 +4214,19 @@
         <v>191</v>
       </c>
       <c r="B193">
-        <v>41.21551535337171</v>
+        <v>4.404133084768012</v>
       </c>
       <c r="C193">
-        <v>19.53789273073531</v>
+        <v>4.308247375370509</v>
       </c>
       <c r="D193">
-        <v>10.01253907751605</v>
+        <v>2.911791291611163</v>
       </c>
       <c r="E193">
-        <v>16.49559890493486</v>
+        <v>6.564321843039455</v>
       </c>
       <c r="F193">
-        <v>17.67818108512409</v>
+        <v>6.44000429007808</v>
       </c>
     </row>
     <row r="194" spans="1:6">
@@ -4234,19 +4234,19 @@
         <v>192</v>
       </c>
       <c r="B194">
-        <v>41.22396033365826</v>
+        <v>4.424725632244604</v>
       </c>
       <c r="C194">
-        <v>19.55561926613253</v>
+        <v>4.323224705260878</v>
       </c>
       <c r="D194">
-        <v>10.02085411047388</v>
+        <v>2.914448883545848</v>
       </c>
       <c r="E194">
-        <v>16.50524518096096</v>
+        <v>6.592748071369201</v>
       </c>
       <c r="F194">
-        <v>17.70075263042603</v>
+        <v>6.453392342455287</v>
       </c>
     </row>
     <row r="195" spans="1:6">
@@ -4254,19 +4254,19 @@
         <v>193</v>
       </c>
       <c r="B195">
-        <v>41.23220191159673</v>
+        <v>4.445506978826865</v>
       </c>
       <c r="C195">
-        <v>19.57313393118124</v>
+        <v>4.33826216557306</v>
       </c>
       <c r="D195">
-        <v>10.02905507965818</v>
+        <v>2.917091207789491</v>
       </c>
       <c r="E195">
-        <v>16.51474712208904</v>
+        <v>6.621130157498452</v>
       </c>
       <c r="F195">
-        <v>17.72309173549193</v>
+        <v>6.466690669593439</v>
       </c>
     </row>
     <row r="196" spans="1:6">
@@ -4274,19 +4274,19 @@
         <v>194</v>
       </c>
       <c r="B196">
-        <v>41.24024569738005</v>
+        <v>4.466480429270936</v>
       </c>
       <c r="C196">
-        <v>19.59044000316245</v>
+        <v>4.353360790199351</v>
       </c>
       <c r="D196">
-        <v>10.03714374602504</v>
+        <v>2.919718355634312</v>
       </c>
       <c r="E196">
-        <v>16.52410749078284</v>
+        <v>6.649465291877226</v>
       </c>
       <c r="F196">
-        <v>17.74520135989723</v>
+        <v>6.479899670551871</v>
       </c>
     </row>
     <row r="197" spans="1:6">
@@ -4294,19 +4294,19 @@
         <v>195</v>
       </c>
       <c r="B197">
-        <v>41.24809716987988</v>
+        <v>4.487649308434272</v>
       </c>
       <c r="C197">
-        <v>19.60754069000755</v>
+        <v>4.368521631006743</v>
       </c>
       <c r="D197">
-        <v>10.04512184405071</v>
+        <v>2.922330417747494</v>
       </c>
       <c r="E197">
-        <v>16.53332899650576</v>
+        <v>6.677750752550578</v>
       </c>
       <c r="F197">
-        <v>17.76708442309775</v>
+        <v>6.493019747770638</v>
       </c>
     </row>
     <row r="198" spans="1:6">
@@ -4314,19 +4314,19 @@
         <v>196</v>
       </c>
       <c r="B198">
-        <v>41.25576165921177</v>
+        <v>4.509016991436656</v>
       </c>
       <c r="C198">
-        <v>19.62443916297296</v>
+        <v>4.383745757934028</v>
       </c>
       <c r="D198">
-        <v>10.05299107563454</v>
+        <v>2.924927484174916</v>
       </c>
       <c r="E198">
-        <v>16.54241424590361</v>
+        <v>6.705983886097134</v>
       </c>
       <c r="F198">
-        <v>17.78874380839702</v>
+        <v>6.506051306363046</v>
       </c>
     </row>
     <row r="199" spans="1:6">
@@ -4334,19 +4334,19 @@
         <v>197</v>
       </c>
       <c r="B199">
-        <v>41.2632443510713</v>
+        <v>4.530586894137157</v>
       </c>
       <c r="C199">
-        <v>19.64113853538047</v>
+        <v>4.399034259078519</v>
       </c>
       <c r="D199">
-        <v>10.06075312375757</v>
+        <v>2.92750964434337</v>
       </c>
       <c r="E199">
-        <v>16.55136586304016</v>
+        <v>6.73416214936874</v>
       </c>
       <c r="F199">
-        <v>17.81018235963046</v>
+        <v>6.518994755513629</v>
       </c>
     </row>
     <row r="200" spans="1:6">
@@ -4354,19 +4354,19 @@
         <v>198</v>
       </c>
       <c r="B200">
-        <v>41.27055028047719</v>
+        <v>4.552362464392614</v>
       </c>
       <c r="C200">
-        <v>19.65764186751564</v>
+        <v>4.414388240764596</v>
       </c>
       <c r="D200">
-        <v>10.06840964493294</v>
+        <v>2.930076987062602</v>
       </c>
       <c r="E200">
-        <v>16.56018639536277</v>
+        <v>6.76228308856343</v>
       </c>
       <c r="F200">
-        <v>17.83140288283511</v>
+        <v>6.531850505174098</v>
       </c>
     </row>
     <row r="201" spans="1:6">
@@ -4374,19 +4374,19 @@
         <v>199</v>
       </c>
       <c r="B201">
-        <v>41.27768436129951</v>
+        <v>4.574347147434553</v>
       </c>
       <c r="C201">
-        <v>19.67395216846784</v>
+        <v>4.429808827598035</v>
       </c>
       <c r="D201">
-        <v>10.07596226964946</v>
+        <v>2.932629600530808</v>
       </c>
       <c r="E201">
-        <v>16.56887834034691</v>
+        <v>6.7903443212241</v>
       </c>
       <c r="F201">
-        <v>17.85240814573882</v>
+        <v>6.544618968006889</v>
       </c>
     </row>
     <row r="202" spans="1:6">
@@ -4394,19 +4394,19 @@
         <v>200</v>
       </c>
       <c r="B202">
-        <v>41.28465137182344</v>
+        <v>4.596544456497</v>
       </c>
       <c r="C202">
-        <v>19.6900723919847</v>
+        <v>4.445297162510153</v>
       </c>
       <c r="D202">
-        <v>10.0834126036149</v>
+        <v>2.93516757233321</v>
       </c>
       <c r="E202">
-        <v>16.57744414682466</v>
+        <v>6.818343563655444</v>
       </c>
       <c r="F202">
-        <v>17.87320087649101</v>
+        <v>6.557300558782361</v>
       </c>
     </row>
     <row r="203" spans="1:6">
@@ -4414,19 +4414,19 @@
         <v>201</v>
       </c>
       <c r="B203">
-        <v>41.29145595300649</v>
+        <v>4.618957920638527</v>
       </c>
       <c r="C203">
-        <v>19.7060054290137</v>
+        <v>4.460854406797111</v>
       </c>
       <c r="D203">
-        <v>10.09076222814083</v>
+        <v>2.937690989448401</v>
       </c>
       <c r="E203">
-        <v>16.58588621610889</v>
+        <v>6.846278620101584</v>
       </c>
       <c r="F203">
-        <v>17.8937837712482</v>
+        <v>6.569895695175193</v>
       </c>
     </row>
     <row r="204" spans="1:6">
@@ -4434,19 +4434,19 @@
         <v>202</v>
       </c>
       <c r="B204">
-        <v>41.29810259839724</v>
+        <v>4.641591087362153</v>
       </c>
       <c r="C204">
-        <v>19.72175414513753</v>
+        <v>4.476481740118969</v>
       </c>
       <c r="D204">
-        <v>10.09801269415438</v>
+        <v>2.940199938250946</v>
       </c>
       <c r="E204">
-        <v>16.59420687399467</v>
+        <v>6.874147367205714</v>
       </c>
       <c r="F204">
-        <v>17.91415948832325</v>
+        <v>6.582404796216715</v>
       </c>
     </row>
     <row r="205" spans="1:6">
@@ -4454,19 +4454,19 @@
         <v>203</v>
       </c>
       <c r="B205">
-        <v>41.30459571946671</v>
+        <v>4.66444749640786</v>
       </c>
       <c r="C205">
-        <v>19.73732134802517</v>
+        <v>4.492180360498296</v>
       </c>
       <c r="D205">
-        <v>10.10516553614534</v>
+        <v>2.94269450451179</v>
       </c>
       <c r="E205">
-        <v>16.60240842235817</v>
+        <v>6.901947769989553</v>
       </c>
       <c r="F205">
-        <v>17.93433065045341</v>
+        <v>6.594828282217192</v>
       </c>
     </row>
     <row r="206" spans="1:6">
@@ -4474,19 +4474,19 @@
         <v>204</v>
       </c>
       <c r="B206">
-        <v>41.3109395973006</v>
+        <v>4.687530744171308</v>
       </c>
       <c r="C206">
-        <v>19.75270979798422</v>
+        <v>4.507951484264772</v>
       </c>
       <c r="D206">
-        <v>10.11222226341246</v>
+        <v>2.945174773405446</v>
       </c>
       <c r="E206">
-        <v>16.61049312678569</v>
+        <v>6.929677877643361</v>
       </c>
       <c r="F206">
-        <v>17.95429984492687</v>
+        <v>6.607166575264405</v>
       </c>
     </row>
     <row r="207" spans="1:6">
@@ -4494,19 +4494,19 @@
         <v>205</v>
       </c>
       <c r="B207">
-        <v>41.31713840095369</v>
+        <v>4.710844429662592</v>
       </c>
       <c r="C207">
-        <v>19.76792220887414</v>
+        <v>4.523796346109667</v>
       </c>
       <c r="D207">
-        <v>10.11918436155661</v>
+        <v>2.947640829508932</v>
       </c>
       <c r="E207">
-        <v>16.61846319916001</v>
+        <v>6.957335810235343</v>
       </c>
       <c r="F207">
-        <v>17.97406962063886</v>
+        <v>6.619420099344744</v>
       </c>
     </row>
     <row r="208" spans="1:6">
@@ -4514,19 +4514,19 @@
         <v>206</v>
       </c>
       <c r="B208">
-        <v>41.32319619161613</v>
+        <v>4.734392144534777</v>
       </c>
       <c r="C208">
-        <v>19.78296123809505</v>
+        <v>4.539716198865694</v>
       </c>
       <c r="D208">
-        <v>10.12605329339429</v>
+        <v>2.95009275680729</v>
       </c>
       <c r="E208">
-        <v>16.62632080783925</v>
+        <v>6.984919767469353</v>
       </c>
       <c r="F208">
-        <v>17.9936424971966</v>
+        <v>6.63158928014033</v>
       </c>
     </row>
     <row r="209" spans="1:6">
@@ -4534,19 +4534,19 @@
         <v>207</v>
       </c>
       <c r="B209">
-        <v>41.32911685021215</v>
+        <v>4.75817747402458</v>
       </c>
       <c r="C209">
-        <v>19.79782950217368</v>
+        <v>4.555712313635755</v>
       </c>
       <c r="D209">
-        <v>10.13283049932151</v>
+        <v>2.952530638696334</v>
       </c>
       <c r="E209">
-        <v>16.63406807867473</v>
+        <v>7.012428027844498</v>
       </c>
       <c r="F209">
-        <v>18.01302095843608</v>
+        <v>6.64367454350193</v>
       </c>
     </row>
     <row r="210" spans="1:6">
@@ -4554,19 +4554,19 @@
         <v>208</v>
       </c>
       <c r="B210">
-        <v>41.33490418511235</v>
+        <v>4.782204037178503</v>
       </c>
       <c r="C210">
-        <v>19.81252958108142</v>
+        <v>4.571785979490619</v>
       </c>
       <c r="D210">
-        <v>10.13951739106587</v>
+        <v>2.954954557984746</v>
       </c>
       <c r="E210">
-        <v>16.64170708306269</v>
+        <v>7.039858938136054</v>
       </c>
       <c r="F210">
-        <v>18.03220745474979</v>
+        <v>6.655676316697689</v>
       </c>
     </row>
     <row r="211" spans="1:6">
@@ -4574,19 +4574,19 @@
         <v>209</v>
       </c>
       <c r="B211">
-        <v>41.34056195718445</v>
+        <v>4.806475440321901</v>
       </c>
       <c r="C211">
-        <v>19.82706400622953</v>
+        <v>4.587938503425808</v>
       </c>
       <c r="D211">
-        <v>10.14611536666107</v>
+        <v>2.957364596898985</v>
       </c>
       <c r="E211">
-        <v>16.64923984230425</v>
+        <v>7.067210917026511</v>
       </c>
       <c r="F211">
-        <v>18.05120440354539</v>
+        <v>6.667595028065384</v>
       </c>
     </row>
     <row r="212" spans="1:6">
@@ -4594,19 +4594,19 @@
         <v>210</v>
       </c>
       <c r="B212">
-        <v>41.3460937976326</v>
+        <v>4.830995246768087</v>
       </c>
       <c r="C212">
-        <v>19.84143526616718</v>
+        <v>4.604171210235505</v>
       </c>
       <c r="D212">
-        <v>10.15262580007793</v>
+        <v>2.959760837084545</v>
       </c>
       <c r="E212">
-        <v>16.65666836742897</v>
+        <v>7.09448245550443</v>
       </c>
       <c r="F212">
-        <v>18.0700141856415</v>
+        <v>6.679431107771981</v>
       </c>
     </row>
     <row r="213" spans="1:6">
@@ -4614,19 +4614,19 @@
         <v>211</v>
       </c>
       <c r="B213">
-        <v>41.35150324437881</v>
+        <v>4.855767023831256</v>
       </c>
       <c r="C213">
-        <v>19.8556458074243</v>
+        <v>4.620485442129828</v>
       </c>
       <c r="D213">
-        <v>10.1590500437397</v>
+        <v>2.962143359610491</v>
       </c>
       <c r="E213">
-        <v>16.66399461579599</v>
+        <v>7.121672109354999</v>
       </c>
       <c r="F213">
-        <v>18.08863915429835</v>
+        <v>6.69118498528645</v>
       </c>
     </row>
     <row r="214" spans="1:6">
@@ -4634,19 +4634,19 @@
         <v>212</v>
       </c>
       <c r="B214">
-        <v>41.35679374587583</v>
+        <v>4.880794334868719</v>
       </c>
       <c r="C214">
-        <v>19.86969801758218</v>
+        <v>4.636882558823782</v>
       </c>
       <c r="D214">
-        <v>10.1653894291639</v>
+        <v>2.964512244972688</v>
       </c>
       <c r="E214">
-        <v>16.67122050598627</v>
+        <v>7.148778499651089</v>
       </c>
       <c r="F214">
-        <v>18.10708162955352</v>
+        <v>6.702857091135298</v>
       </c>
     </row>
     <row r="215" spans="1:6">
@@ -4654,19 +4654,19 @@
         <v>213</v>
       </c>
       <c r="B215">
-        <v>41.36196848245399</v>
+        <v>4.906080713629206</v>
       </c>
       <c r="C215">
-        <v>19.8835942650522</v>
+        <v>4.653363936894721</v>
       </c>
       <c r="D215">
-        <v>10.17164526730567</v>
+        <v>2.966867573095906</v>
       </c>
       <c r="E215">
-        <v>16.67834791872978</v>
+        <v>7.175800312824067</v>
       </c>
       <c r="F215">
-        <v>18.12534389988286</v>
+        <v>6.714447856273064</v>
       </c>
     </row>
     <row r="216" spans="1:6">
@@ -4674,19 +4674,19 @@
         <v>214</v>
       </c>
       <c r="B216">
-        <v>41.36703076283173</v>
+        <v>4.931629605751903</v>
       </c>
       <c r="C216">
-        <v>19.89733687117954</v>
+        <v>4.669930969949335</v>
       </c>
       <c r="D216">
-        <v>10.17781884172663</v>
+        <v>2.969209423339924</v>
       </c>
       <c r="E216">
-        <v>16.68537869503195</v>
+        <v>7.202736295892209</v>
       </c>
       <c r="F216">
-        <v>18.14342822279134</v>
+        <v>6.725957713281184</v>
       </c>
     </row>
     <row r="217" spans="1:6">
@@ -4694,19 +4694,19 @@
         <v>215</v>
       </c>
       <c r="B217">
-        <v>41.37198374952766</v>
+        <v>4.957444480722351</v>
       </c>
       <c r="C217">
-        <v>19.91092811716875</v>
+        <v>4.68658506779946</v>
       </c>
       <c r="D217">
-        <v>10.1839114253233</v>
+        <v>2.971537874498853</v>
       </c>
       <c r="E217">
-        <v>16.69231460958712</v>
+        <v>7.229585255383558</v>
       </c>
       <c r="F217">
-        <v>18.16133682218026</v>
+        <v>6.737387093671332</v>
       </c>
     </row>
     <row r="218" spans="1:6">
@@ -4714,19 +4714,19 @@
         <v>216</v>
       </c>
       <c r="B218">
-        <v>41.37683051177912</v>
+        <v>4.983528749828453</v>
       </c>
       <c r="C218">
-        <v>19.92437024548722</v>
+        <v>4.703327656577417</v>
       </c>
       <c r="D218">
-        <v>10.18992426779513</v>
+        <v>2.97385300480647</v>
       </c>
       <c r="E218">
-        <v>16.69915744612367</v>
+        <v>7.256346056314205</v>
       </c>
       <c r="F218">
-        <v>18.17907189426294</v>
+        <v>6.74873642946455</v>
       </c>
     </row>
     <row r="219" spans="1:6">
@@ -4734,19 +4734,19 @@
         <v>217</v>
       </c>
       <c r="B219">
-        <v>41.38157403876779</v>
+        <v>5.009885767605348</v>
       </c>
       <c r="C219">
-        <v>19.93766545688065</v>
+        <v>4.720160177482534</v>
       </c>
       <c r="D219">
-        <v>10.19585859930606</v>
+        <v>2.976154891939776</v>
       </c>
       <c r="E219">
-        <v>16.70590893551385</v>
+        <v>7.283017620049513</v>
       </c>
       <c r="F219">
-        <v>18.19663560558703</v>
+        <v>6.760006152773279</v>
       </c>
     </row>
     <row r="220" spans="1:6">
@@ -4754,19 +4754,19 @@
         <v>218</v>
       </c>
       <c r="B220">
-        <v>41.38621721176568</v>
+        <v>5.036518785954927</v>
       </c>
       <c r="C220">
-        <v>19.95081590682301</v>
+        <v>4.737084088032875</v>
       </c>
       <c r="D220">
-        <v>10.20171563086403</v>
+        <v>2.97844361302565</v>
       </c>
       <c r="E220">
-        <v>16.71257077416662</v>
+        <v>7.309598922433253</v>
       </c>
       <c r="F220">
-        <v>18.21403009266477</v>
+        <v>6.771196696464277</v>
       </c>
     </row>
     <row r="221" spans="1:6">
@@ -4774,19 +4774,19 @@
         <v>219</v>
       </c>
       <c r="B221">
-        <v>41.39076273520524</v>
+        <v>5.0634310503915</v>
       </c>
       <c r="C221">
-        <v>19.96382372873516</v>
+        <v>4.754100860788578</v>
       </c>
       <c r="D221">
-        <v>10.20749655444363</v>
+        <v>2.980719244635377</v>
       </c>
       <c r="E221">
-        <v>16.71914462486992</v>
+        <v>7.336088990614611</v>
       </c>
       <c r="F221">
-        <v>18.23125746295872</v>
+        <v>6.782308492961961</v>
       </c>
     </row>
     <row r="222" spans="1:6">
@@ -4794,19 +4794,19 @@
         <v>220</v>
       </c>
       <c r="B222">
-        <v>41.3952134080074</v>
+        <v>5.090625716844631</v>
       </c>
       <c r="C222">
-        <v>19.97669101354262</v>
+        <v>4.771211981006337</v>
       </c>
       <c r="D222">
-        <v>10.21320253659264</v>
+        <v>2.982981862794374</v>
       </c>
       <c r="E222">
-        <v>16.72563211763286</v>
+        <v>7.362486902362731</v>
       </c>
       <c r="F222">
-        <v>18.24831979075119</v>
+        <v>6.793341974125085</v>
       </c>
     </row>
     <row r="223" spans="1:6">
@@ -4814,19 +4814,19 @@
         <v>221</v>
       </c>
       <c r="B223">
-        <v>41.39957188587374</v>
+        <v>5.118105844945107</v>
       </c>
       <c r="C223">
-        <v>19.98941981655961</v>
+        <v>4.788418949551796</v>
       </c>
       <c r="D223">
-        <v>10.21883473489473</v>
+        <v>2.985231542986406</v>
       </c>
       <c r="E223">
-        <v>16.73203482310258</v>
+        <v>7.388791783800788</v>
       </c>
       <c r="F223">
-        <v>18.26521912435103</v>
+        <v>6.804297571745132</v>
       </c>
     </row>
     <row r="224" spans="1:6">
@@ -4834,19 +4834,19 @@
         <v>222</v>
       </c>
       <c r="B224">
-        <v>41.40384075240797</v>
+        <v>5.145874387150658</v>
       </c>
       <c r="C224">
-        <v>20.00201215821064</v>
+        <v>4.80572327918514</v>
       </c>
       <c r="D224">
-        <v>10.22439428524322</v>
+        <v>2.987468360157217</v>
       </c>
       <c r="E224">
-        <v>16.73835430819522</v>
+        <v>7.415002812545112</v>
       </c>
       <c r="F224">
-        <v>18.2819574871889</v>
+        <v>6.815175717644009</v>
       </c>
     </row>
     <row r="225" spans="1:6">
@@ -4854,19 +4854,19 @@
         <v>223</v>
       </c>
       <c r="B225">
-        <v>41.40802252169659</v>
+        <v>5.173934239093049</v>
       </c>
       <c r="C225">
-        <v>20.01447001559427</v>
+        <v>4.823126495300202</v>
       </c>
       <c r="D225">
-        <v>10.22988230569478</v>
+        <v>2.989692388710799</v>
       </c>
       <c r="E225">
-        <v>16.74459210720183</v>
+        <v>7.441119212492662</v>
       </c>
       <c r="F225">
-        <v>18.29853687324848</v>
+        <v>6.825976843590291</v>
       </c>
     </row>
     <row r="226" spans="1:6">
@@ -4874,19 +4874,19 @@
         <v>224</v>
       </c>
       <c r="B226">
-        <v>41.41211959381465</v>
+        <v>5.202288179883755</v>
       </c>
       <c r="C226">
-        <v>20.0267953364296</v>
+        <v>4.840630135236434</v>
       </c>
       <c r="D226">
-        <v>10.23529989677081</v>
+        <v>2.991903702519306</v>
       </c>
       <c r="E226">
-        <v>16.75074971893224</v>
+        <v>7.467140243768775</v>
       </c>
       <c r="F226">
-        <v>18.31495924945084</v>
+        <v>6.836701379998122</v>
       </c>
     </row>
     <row r="227" spans="1:6">
@@ -4894,19 +4894,19 @@
         <v>225</v>
       </c>
       <c r="B227">
-        <v>41.41613430795696</v>
+        <v>5.230938852465255</v>
       </c>
       <c r="C227">
-        <v>20.03899004053072</v>
+        <v>4.858235746738035</v>
       </c>
       <c r="D227">
-        <v>10.24064814130566</v>
+        <v>2.994102374927742</v>
       </c>
       <c r="E227">
-        <v>16.75682861233424</v>
+        <v>7.493065211072833</v>
       </c>
       <c r="F227">
-        <v>18.33122655607999</v>
+        <v>6.847349757024841</v>
       </c>
     </row>
     <row r="228" spans="1:6">
@@ -4914,19 +4914,19 @@
         <v>226</v>
       </c>
       <c r="B228">
-        <v>41.42006898889547</v>
+        <v>5.259888786602763</v>
       </c>
       <c r="C228">
-        <v>20.05105601135856</v>
+        <v>4.875944888364258</v>
       </c>
       <c r="D228">
-        <v>10.24592809904176</v>
+        <v>2.996288478753758</v>
       </c>
       <c r="E228">
-        <v>16.76283022725169</v>
+        <v>7.518893458589312</v>
       </c>
       <c r="F228">
-        <v>18.3473407072085</v>
+        <v>6.857922404282906</v>
       </c>
     </row>
     <row r="229" spans="1:6">
@@ -4934,19 +4934,19 @@
         <v>227</v>
       </c>
       <c r="B229">
-        <v>41.42392587060483</v>
+        <v>5.289140397809756</v>
       </c>
       <c r="C229">
-        <v>20.06299510031171</v>
+        <v>4.893759127067087</v>
       </c>
       <c r="D229">
-        <v>10.25114082163159</v>
+        <v>2.998462086290322</v>
       </c>
       <c r="E229">
-        <v>16.7687559602323</v>
+        <v>7.544624380183519</v>
       </c>
       <c r="F229">
-        <v>18.36330359112305</v>
+        <v>6.868419751500921</v>
       </c>
     </row>
     <row r="230" spans="1:6">
@@ -4954,19 +4954,19 @@
         <v>228</v>
       </c>
       <c r="B230">
-        <v>41.42770712572589</v>
+        <v>5.318695958258502</v>
       </c>
       <c r="C230">
-        <v>20.07480912739202</v>
+        <v>4.911680039103913</v>
       </c>
       <c r="D230">
-        <v>10.2562873407885</v>
+        <v>3.000623269311621</v>
       </c>
       <c r="E230">
-        <v>16.77460718002473</v>
+        <v>7.570257409600791</v>
       </c>
       <c r="F230">
-        <v>18.37911705055071</v>
+        <v>6.878842226510969</v>
       </c>
     </row>
     <row r="231" spans="1:6">
@@ -4974,19 +4974,19 @@
         <v>229</v>
       </c>
       <c r="B231">
-        <v>41.43141486780745</v>
+        <v>5.348557575196853</v>
       </c>
       <c r="C231">
-        <v>20.08649986647404</v>
+        <v>4.929709207289872</v>
       </c>
       <c r="D231">
-        <v>10.26136867191185</v>
+        <v>3.002772099077216</v>
       </c>
       <c r="E231">
-        <v>16.78038524759396</v>
+        <v>7.595791998844605</v>
       </c>
       <c r="F231">
-        <v>18.39478292791324</v>
+        <v>6.889190256677034</v>
       </c>
     </row>
     <row r="232" spans="1:6">
@@ -4994,19 +4994,19 @@
         <v>230</v>
       </c>
       <c r="B232">
-        <v>41.43505109885599</v>
+        <v>5.378727220830061</v>
       </c>
       <c r="C232">
-        <v>20.09806908035702</v>
+        <v>4.947848220870113</v>
       </c>
       <c r="D232">
-        <v>10.266385814368</v>
+        <v>3.00490864633262</v>
       </c>
       <c r="E232">
-        <v>16.78609148622489</v>
+        <v>7.621227641656636</v>
       </c>
       <c r="F232">
-        <v>18.41030303593541</v>
+        <v>6.899464268417566</v>
       </c>
     </row>
     <row r="233" spans="1:6">
@@ -5014,19 +5014,19 @@
         <v>231</v>
       </c>
       <c r="B233">
-        <v>41.43861782218238</v>
+        <v>5.409206702236518</v>
       </c>
       <c r="C233">
-        <v>20.10951849503706</v>
+        <v>4.966098674646428</v>
       </c>
       <c r="D233">
-        <v>10.27133975108753</v>
+        <v>3.007032981314355</v>
       </c>
       <c r="E233">
-        <v>16.79172719268428</v>
+        <v>7.646563863814422</v>
       </c>
       <c r="F233">
-        <v>18.42567916014393</v>
+        <v>6.909664688089285</v>
       </c>
     </row>
     <row r="234" spans="1:6">
@@ -5034,19 +5034,19 @@
         <v>232</v>
       </c>
       <c r="B234">
-        <v>41.44211697748786</v>
+        <v>5.439997656527642</v>
       </c>
       <c r="C234">
-        <v>20.12084980682769</v>
+        <v>4.984462166182862</v>
       </c>
       <c r="D234">
-        <v>10.27623144424529</v>
+        <v>3.009145173753217</v>
       </c>
       <c r="E234">
-        <v>16.79729363789915</v>
+        <v>7.671800238004744</v>
       </c>
       <c r="F234">
-        <v>18.44091306195319</v>
+        <v>6.919791940073917</v>
       </c>
     </row>
     <row r="235" spans="1:6">
@@ -5054,19 +5054,19 @@
         <v>233</v>
       </c>
       <c r="B235">
-        <v>41.44555044481604</v>
+        <v>5.471101549356133</v>
       </c>
       <c r="C235">
-        <v>20.13206468319452</v>
+        <v>5.00294029715557</v>
       </c>
       <c r="D235">
-        <v>10.28106184850161</v>
+        <v>3.011245292877432</v>
       </c>
       <c r="E235">
-        <v>16.80279206261457</v>
+        <v>7.696936371765606</v>
       </c>
       <c r="F235">
-        <v>18.45600647907143</v>
+        <v>6.929846447880847</v>
       </c>
     </row>
     <row r="236" spans="1:6">
@@ -5074,19 +5074,19 @@
         <v>234</v>
       </c>
       <c r="B236">
-        <v>41.44892005310432</v>
+        <v>5.50251965525367</v>
       </c>
       <c r="C236">
-        <v>20.14316475948428</v>
+        <v>5.021534668777962</v>
       </c>
       <c r="D236">
-        <v>10.285831900293</v>
+        <v>3.013333407416455</v>
       </c>
       <c r="E236">
-        <v>16.80822366354925</v>
+        <v>7.721971877312593</v>
       </c>
       <c r="F236">
-        <v>18.4709611259071</v>
+        <v>6.939828633900787</v>
       </c>
     </row>
     <row r="237" spans="1:6">
@@ -5094,19 +5094,19 @@
         <v>235</v>
       </c>
       <c r="B237">
-        <v>41.4522275731242</v>
+        <v>5.534253058538218</v>
       </c>
       <c r="C237">
-        <v>20.15415163666152</v>
+        <v>5.040246883668037</v>
       </c>
       <c r="D237">
-        <v>10.29054252115571</v>
+        <v>3.015409585604115</v>
       </c>
       <c r="E237">
-        <v>16.81358964610305</v>
+        <v>7.746906405774841</v>
       </c>
       <c r="F237">
-        <v>18.48577869112848</v>
+        <v>6.949738919863806</v>
       </c>
     </row>
     <row r="238" spans="1:6">
@@ -5114,19 +5114,19 @@
         <v>236</v>
       </c>
       <c r="B238">
-        <v>41.45547467435977</v>
+        <v>5.566302656927846</v>
       </c>
       <c r="C238">
-        <v>20.16502690147188</v>
+        <v>5.059078541974155</v>
       </c>
       <c r="D238">
-        <v>10.29519461798738</v>
+        <v>3.017473895182039</v>
       </c>
       <c r="E238">
-        <v>16.81889117800621</v>
+        <v>7.771739634422264</v>
       </c>
       <c r="F238">
-        <v>18.50046080342011</v>
+        <v>6.95957772605154</v>
       </c>
     </row>
   </sheetData>
